--- a/data/safe_qscores_high2low.xlsx
+++ b/data/safe_qscores_high2low.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA301"/>
+  <dimension ref="A1:AE301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,26 @@
           <t>05ly_RL</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>06wrl_LR</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>06wrl_RL</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>07lxy_LR</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>07lxy_RL</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -694,6 +714,26 @@
           <t>segment_300.npy</t>
         </is>
       </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>segment_000.npy</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>segment_300.npy</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>segment_000.npy</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>segment_300.npy</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -819,6 +859,26 @@
           <t>segment_301.npy</t>
         </is>
       </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>segment_001.npy</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>segment_301.npy</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>segment_001.npy</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>segment_301.npy</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -944,6 +1004,26 @@
           <t>segment_302.npy</t>
         </is>
       </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>segment_002.npy</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>segment_302.npy</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>segment_002.npy</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>segment_302.npy</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1069,6 +1149,26 @@
           <t>segment_303.npy</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>segment_003.npy</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>segment_303.npy</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>segment_003.npy</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>segment_303.npy</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1194,6 +1294,26 @@
           <t>segment_304.npy</t>
         </is>
       </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>segment_004.npy</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>segment_304.npy</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>segment_004.npy</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>segment_304.npy</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1319,6 +1439,26 @@
           <t>segment_305.npy</t>
         </is>
       </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>segment_005.npy</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>segment_305.npy</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>segment_005.npy</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>segment_305.npy</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1444,6 +1584,26 @@
           <t>segment_306.npy</t>
         </is>
       </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>segment_006.npy</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>segment_306.npy</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>segment_006.npy</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>segment_306.npy</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1569,6 +1729,26 @@
           <t>segment_307.npy</t>
         </is>
       </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>segment_007.npy</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>segment_307.npy</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>segment_007.npy</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>segment_307.npy</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1694,6 +1874,26 @@
           <t>segment_308.npy</t>
         </is>
       </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>segment_008.npy</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>segment_308.npy</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>segment_008.npy</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>segment_308.npy</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1819,6 +2019,26 @@
           <t>segment_309.npy</t>
         </is>
       </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>segment_009.npy</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>segment_309.npy</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>segment_009.npy</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>segment_309.npy</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1944,6 +2164,26 @@
           <t>segment_310.npy</t>
         </is>
       </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>segment_010.npy</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>segment_310.npy</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>segment_010.npy</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>segment_310.npy</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2069,6 +2309,26 @@
           <t>segment_311.npy</t>
         </is>
       </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>segment_011.npy</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>segment_311.npy</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>segment_011.npy</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>segment_311.npy</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2194,6 +2454,26 @@
           <t>segment_312.npy</t>
         </is>
       </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>segment_012.npy</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>segment_312.npy</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>segment_012.npy</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>segment_312.npy</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2319,6 +2599,26 @@
           <t>segment_313.npy</t>
         </is>
       </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>segment_013.npy</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>segment_313.npy</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>segment_013.npy</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>segment_313.npy</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2444,6 +2744,26 @@
           <t>segment_314.npy</t>
         </is>
       </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>segment_014.npy</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>segment_314.npy</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>segment_014.npy</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>segment_314.npy</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2569,6 +2889,26 @@
           <t>segment_315.npy</t>
         </is>
       </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>segment_015.npy</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>segment_315.npy</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>segment_015.npy</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>segment_315.npy</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2694,6 +3034,26 @@
           <t>segment_316.npy</t>
         </is>
       </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>segment_016.npy</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>segment_316.npy</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>segment_016.npy</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>segment_316.npy</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2819,6 +3179,26 @@
           <t>segment_317.npy</t>
         </is>
       </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>segment_017.npy</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>segment_317.npy</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>segment_017.npy</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>segment_317.npy</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2944,6 +3324,26 @@
           <t>segment_318.npy</t>
         </is>
       </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>segment_018.npy</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>segment_318.npy</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>segment_018.npy</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>segment_318.npy</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3069,6 +3469,26 @@
           <t>segment_319.npy</t>
         </is>
       </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>segment_019.npy</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>segment_319.npy</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>segment_019.npy</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>segment_319.npy</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3194,6 +3614,26 @@
           <t>segment_320.npy</t>
         </is>
       </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>segment_020.npy</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>segment_320.npy</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>segment_020.npy</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>segment_320.npy</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3319,6 +3759,26 @@
           <t>segment_321.npy</t>
         </is>
       </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>segment_021.npy</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>segment_321.npy</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>segment_021.npy</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>segment_321.npy</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3444,6 +3904,26 @@
           <t>segment_322.npy</t>
         </is>
       </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>segment_022.npy</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>segment_322.npy</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>segment_022.npy</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>segment_322.npy</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3569,6 +4049,26 @@
           <t>segment_323.npy</t>
         </is>
       </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>segment_023.npy</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>segment_323.npy</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>segment_023.npy</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>segment_323.npy</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3694,6 +4194,26 @@
           <t>segment_324.npy</t>
         </is>
       </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>segment_024.npy</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>segment_324.npy</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>segment_024.npy</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>segment_324.npy</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3819,6 +4339,26 @@
           <t>segment_325.npy</t>
         </is>
       </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>segment_025.npy</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>segment_325.npy</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>segment_025.npy</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>segment_325.npy</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3944,6 +4484,26 @@
           <t>segment_326.npy</t>
         </is>
       </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>segment_026.npy</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>segment_326.npy</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>segment_026.npy</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>segment_326.npy</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4069,6 +4629,26 @@
           <t>segment_327.npy</t>
         </is>
       </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>segment_027.npy</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>segment_327.npy</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>segment_027.npy</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>segment_327.npy</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4194,6 +4774,26 @@
           <t>segment_328.npy</t>
         </is>
       </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>segment_028.npy</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>segment_328.npy</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>segment_028.npy</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>segment_328.npy</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4319,6 +4919,26 @@
           <t>segment_329.npy</t>
         </is>
       </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>segment_029.npy</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>segment_329.npy</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>segment_029.npy</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>segment_329.npy</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4444,6 +5064,26 @@
           <t>segment_330.npy</t>
         </is>
       </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>segment_030.npy</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>segment_330.npy</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>segment_030.npy</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>segment_330.npy</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4569,6 +5209,26 @@
           <t>segment_331.npy</t>
         </is>
       </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>segment_031.npy</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>segment_331.npy</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>segment_031.npy</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>segment_331.npy</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4694,6 +5354,26 @@
           <t>segment_332.npy</t>
         </is>
       </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>segment_032.npy</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>segment_332.npy</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>segment_032.npy</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>segment_332.npy</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4819,6 +5499,26 @@
           <t>segment_333.npy</t>
         </is>
       </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>segment_033.npy</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>segment_333.npy</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>segment_033.npy</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>segment_333.npy</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4944,6 +5644,26 @@
           <t>segment_334.npy</t>
         </is>
       </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>segment_034.npy</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>segment_334.npy</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>segment_034.npy</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>segment_334.npy</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5069,6 +5789,26 @@
           <t>segment_335.npy</t>
         </is>
       </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>segment_035.npy</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>segment_335.npy</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>segment_035.npy</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>segment_335.npy</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5194,6 +5934,26 @@
           <t>segment_336.npy</t>
         </is>
       </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>segment_036.npy</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>segment_336.npy</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>segment_036.npy</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>segment_336.npy</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5319,6 +6079,26 @@
           <t>segment_337.npy</t>
         </is>
       </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>segment_037.npy</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>segment_337.npy</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>segment_037.npy</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>segment_337.npy</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5444,6 +6224,26 @@
           <t>segment_338.npy</t>
         </is>
       </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>segment_038.npy</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>segment_338.npy</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>segment_038.npy</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>segment_338.npy</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5569,6 +6369,26 @@
           <t>segment_339.npy</t>
         </is>
       </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>segment_039.npy</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>segment_339.npy</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>segment_039.npy</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>segment_339.npy</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5694,6 +6514,26 @@
           <t>segment_340.npy</t>
         </is>
       </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>segment_040.npy</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>segment_340.npy</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>segment_040.npy</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>segment_340.npy</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5819,6 +6659,26 @@
           <t>segment_341.npy</t>
         </is>
       </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>segment_041.npy</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>segment_341.npy</t>
+        </is>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>segment_041.npy</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>segment_341.npy</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5944,6 +6804,26 @@
           <t>segment_342.npy</t>
         </is>
       </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>segment_042.npy</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>segment_342.npy</t>
+        </is>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>segment_042.npy</t>
+        </is>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>segment_342.npy</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6069,6 +6949,26 @@
           <t>segment_343.npy</t>
         </is>
       </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>segment_043.npy</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>segment_343.npy</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>segment_043.npy</t>
+        </is>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>segment_343.npy</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6194,6 +7094,26 @@
           <t>segment_344.npy</t>
         </is>
       </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>segment_044.npy</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>segment_344.npy</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>segment_044.npy</t>
+        </is>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>segment_344.npy</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6319,6 +7239,26 @@
           <t>segment_345.npy</t>
         </is>
       </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>segment_045.npy</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>segment_345.npy</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>segment_045.npy</t>
+        </is>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>segment_345.npy</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6444,6 +7384,26 @@
           <t>segment_346.npy</t>
         </is>
       </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>segment_046.npy</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>segment_346.npy</t>
+        </is>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>segment_046.npy</t>
+        </is>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>segment_346.npy</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6569,6 +7529,26 @@
           <t>segment_347.npy</t>
         </is>
       </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>segment_047.npy</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>segment_347.npy</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>segment_047.npy</t>
+        </is>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>segment_347.npy</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6694,6 +7674,26 @@
           <t>segment_348.npy</t>
         </is>
       </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>segment_048.npy</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>segment_348.npy</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>segment_048.npy</t>
+        </is>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>segment_348.npy</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6819,6 +7819,26 @@
           <t>segment_349.npy</t>
         </is>
       </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>segment_049.npy</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>segment_349.npy</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>segment_049.npy</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>segment_349.npy</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6944,6 +7964,26 @@
           <t>segment_350.npy</t>
         </is>
       </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>segment_050.npy</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>segment_350.npy</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>segment_050.npy</t>
+        </is>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>segment_350.npy</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7069,6 +8109,26 @@
           <t>segment_351.npy</t>
         </is>
       </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>segment_051.npy</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>segment_351.npy</t>
+        </is>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>segment_051.npy</t>
+        </is>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>segment_351.npy</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7194,6 +8254,26 @@
           <t>segment_352.npy</t>
         </is>
       </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>segment_052.npy</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>segment_352.npy</t>
+        </is>
+      </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>segment_052.npy</t>
+        </is>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>segment_352.npy</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7319,6 +8399,26 @@
           <t>segment_353.npy</t>
         </is>
       </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>segment_053.npy</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>segment_353.npy</t>
+        </is>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>segment_053.npy</t>
+        </is>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>segment_353.npy</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7444,6 +8544,26 @@
           <t>segment_354.npy</t>
         </is>
       </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>segment_054.npy</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>segment_354.npy</t>
+        </is>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>segment_054.npy</t>
+        </is>
+      </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>segment_354.npy</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7569,6 +8689,26 @@
           <t>segment_355.npy</t>
         </is>
       </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>segment_055.npy</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>segment_355.npy</t>
+        </is>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>segment_055.npy</t>
+        </is>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>segment_355.npy</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7694,6 +8834,26 @@
           <t>segment_356.npy</t>
         </is>
       </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>segment_056.npy</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>segment_356.npy</t>
+        </is>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>segment_056.npy</t>
+        </is>
+      </c>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>segment_356.npy</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7819,6 +8979,26 @@
           <t>segment_357.npy</t>
         </is>
       </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>segment_057.npy</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>segment_357.npy</t>
+        </is>
+      </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>segment_057.npy</t>
+        </is>
+      </c>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>segment_357.npy</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7944,6 +9124,26 @@
           <t>segment_358.npy</t>
         </is>
       </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>segment_058.npy</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>segment_358.npy</t>
+        </is>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>segment_058.npy</t>
+        </is>
+      </c>
+      <c r="AE60" t="inlineStr">
+        <is>
+          <t>segment_358.npy</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8069,6 +9269,26 @@
           <t>segment_359.npy</t>
         </is>
       </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>segment_059.npy</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>segment_359.npy</t>
+        </is>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>segment_059.npy</t>
+        </is>
+      </c>
+      <c r="AE61" t="inlineStr">
+        <is>
+          <t>segment_359.npy</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8194,6 +9414,26 @@
           <t>segment_360.npy</t>
         </is>
       </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>segment_060.npy</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>segment_360.npy</t>
+        </is>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>segment_060.npy</t>
+        </is>
+      </c>
+      <c r="AE62" t="inlineStr">
+        <is>
+          <t>segment_360.npy</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8319,6 +9559,26 @@
           <t>segment_361.npy</t>
         </is>
       </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>segment_061.npy</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>segment_361.npy</t>
+        </is>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>segment_061.npy</t>
+        </is>
+      </c>
+      <c r="AE63" t="inlineStr">
+        <is>
+          <t>segment_361.npy</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8444,6 +9704,26 @@
           <t>segment_362.npy</t>
         </is>
       </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>segment_062.npy</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>segment_362.npy</t>
+        </is>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>segment_062.npy</t>
+        </is>
+      </c>
+      <c r="AE64" t="inlineStr">
+        <is>
+          <t>segment_362.npy</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8569,6 +9849,26 @@
           <t>segment_363.npy</t>
         </is>
       </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>segment_063.npy</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>segment_363.npy</t>
+        </is>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>segment_063.npy</t>
+        </is>
+      </c>
+      <c r="AE65" t="inlineStr">
+        <is>
+          <t>segment_363.npy</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8694,6 +9994,26 @@
           <t>segment_364.npy</t>
         </is>
       </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>segment_064.npy</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>segment_364.npy</t>
+        </is>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>segment_064.npy</t>
+        </is>
+      </c>
+      <c r="AE66" t="inlineStr">
+        <is>
+          <t>segment_364.npy</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8819,6 +10139,26 @@
           <t>segment_365.npy</t>
         </is>
       </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>segment_065.npy</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>segment_365.npy</t>
+        </is>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>segment_065.npy</t>
+        </is>
+      </c>
+      <c r="AE67" t="inlineStr">
+        <is>
+          <t>segment_365.npy</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -8944,6 +10284,26 @@
           <t>segment_366.npy</t>
         </is>
       </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>segment_066.npy</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>segment_366.npy</t>
+        </is>
+      </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>segment_066.npy</t>
+        </is>
+      </c>
+      <c r="AE68" t="inlineStr">
+        <is>
+          <t>segment_366.npy</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -9069,6 +10429,26 @@
           <t>segment_367.npy</t>
         </is>
       </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>segment_067.npy</t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>segment_367.npy</t>
+        </is>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>segment_067.npy</t>
+        </is>
+      </c>
+      <c r="AE69" t="inlineStr">
+        <is>
+          <t>segment_367.npy</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -9194,6 +10574,26 @@
           <t>segment_368.npy</t>
         </is>
       </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>segment_068.npy</t>
+        </is>
+      </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>segment_368.npy</t>
+        </is>
+      </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>segment_068.npy</t>
+        </is>
+      </c>
+      <c r="AE70" t="inlineStr">
+        <is>
+          <t>segment_368.npy</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -9319,6 +10719,26 @@
           <t>segment_369.npy</t>
         </is>
       </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>segment_069.npy</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>segment_369.npy</t>
+        </is>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>segment_069.npy</t>
+        </is>
+      </c>
+      <c r="AE71" t="inlineStr">
+        <is>
+          <t>segment_369.npy</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -9444,6 +10864,26 @@
           <t>segment_370.npy</t>
         </is>
       </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>segment_070.npy</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>segment_370.npy</t>
+        </is>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>segment_070.npy</t>
+        </is>
+      </c>
+      <c r="AE72" t="inlineStr">
+        <is>
+          <t>segment_370.npy</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -9569,6 +11009,26 @@
           <t>segment_371.npy</t>
         </is>
       </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>segment_071.npy</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>segment_371.npy</t>
+        </is>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>segment_071.npy</t>
+        </is>
+      </c>
+      <c r="AE73" t="inlineStr">
+        <is>
+          <t>segment_371.npy</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -9694,6 +11154,26 @@
           <t>segment_372.npy</t>
         </is>
       </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>segment_072.npy</t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>segment_372.npy</t>
+        </is>
+      </c>
+      <c r="AD74" t="inlineStr">
+        <is>
+          <t>segment_072.npy</t>
+        </is>
+      </c>
+      <c r="AE74" t="inlineStr">
+        <is>
+          <t>segment_372.npy</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -9819,6 +11299,26 @@
           <t>segment_373.npy</t>
         </is>
       </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>segment_073.npy</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>segment_373.npy</t>
+        </is>
+      </c>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>segment_073.npy</t>
+        </is>
+      </c>
+      <c r="AE75" t="inlineStr">
+        <is>
+          <t>segment_373.npy</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -9944,6 +11444,26 @@
           <t>segment_374.npy</t>
         </is>
       </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>segment_074.npy</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>segment_374.npy</t>
+        </is>
+      </c>
+      <c r="AD76" t="inlineStr">
+        <is>
+          <t>segment_074.npy</t>
+        </is>
+      </c>
+      <c r="AE76" t="inlineStr">
+        <is>
+          <t>segment_374.npy</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -10069,6 +11589,26 @@
           <t>segment_375.npy</t>
         </is>
       </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>segment_075.npy</t>
+        </is>
+      </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>segment_375.npy</t>
+        </is>
+      </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>segment_075.npy</t>
+        </is>
+      </c>
+      <c r="AE77" t="inlineStr">
+        <is>
+          <t>segment_375.npy</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -10194,6 +11734,26 @@
           <t>segment_376.npy</t>
         </is>
       </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>segment_076.npy</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>segment_376.npy</t>
+        </is>
+      </c>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>segment_076.npy</t>
+        </is>
+      </c>
+      <c r="AE78" t="inlineStr">
+        <is>
+          <t>segment_376.npy</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -10319,6 +11879,26 @@
           <t>segment_377.npy</t>
         </is>
       </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>segment_077.npy</t>
+        </is>
+      </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>segment_377.npy</t>
+        </is>
+      </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>segment_077.npy</t>
+        </is>
+      </c>
+      <c r="AE79" t="inlineStr">
+        <is>
+          <t>segment_377.npy</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -10444,6 +12024,26 @@
           <t>segment_378.npy</t>
         </is>
       </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>segment_078.npy</t>
+        </is>
+      </c>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>segment_378.npy</t>
+        </is>
+      </c>
+      <c r="AD80" t="inlineStr">
+        <is>
+          <t>segment_078.npy</t>
+        </is>
+      </c>
+      <c r="AE80" t="inlineStr">
+        <is>
+          <t>segment_378.npy</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -10569,6 +12169,26 @@
           <t>segment_379.npy</t>
         </is>
       </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>segment_079.npy</t>
+        </is>
+      </c>
+      <c r="AC81" t="inlineStr">
+        <is>
+          <t>segment_379.npy</t>
+        </is>
+      </c>
+      <c r="AD81" t="inlineStr">
+        <is>
+          <t>segment_079.npy</t>
+        </is>
+      </c>
+      <c r="AE81" t="inlineStr">
+        <is>
+          <t>segment_379.npy</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -10694,6 +12314,26 @@
           <t>segment_380.npy</t>
         </is>
       </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>segment_080.npy</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>segment_380.npy</t>
+        </is>
+      </c>
+      <c r="AD82" t="inlineStr">
+        <is>
+          <t>segment_080.npy</t>
+        </is>
+      </c>
+      <c r="AE82" t="inlineStr">
+        <is>
+          <t>segment_380.npy</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -10819,6 +12459,26 @@
           <t>segment_381.npy</t>
         </is>
       </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>segment_081.npy</t>
+        </is>
+      </c>
+      <c r="AC83" t="inlineStr">
+        <is>
+          <t>segment_381.npy</t>
+        </is>
+      </c>
+      <c r="AD83" t="inlineStr">
+        <is>
+          <t>segment_081.npy</t>
+        </is>
+      </c>
+      <c r="AE83" t="inlineStr">
+        <is>
+          <t>segment_381.npy</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -10944,6 +12604,26 @@
           <t>segment_382.npy</t>
         </is>
       </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>segment_082.npy</t>
+        </is>
+      </c>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>segment_382.npy</t>
+        </is>
+      </c>
+      <c r="AD84" t="inlineStr">
+        <is>
+          <t>segment_082.npy</t>
+        </is>
+      </c>
+      <c r="AE84" t="inlineStr">
+        <is>
+          <t>segment_382.npy</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -11069,6 +12749,26 @@
           <t>segment_383.npy</t>
         </is>
       </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>segment_083.npy</t>
+        </is>
+      </c>
+      <c r="AC85" t="inlineStr">
+        <is>
+          <t>segment_383.npy</t>
+        </is>
+      </c>
+      <c r="AD85" t="inlineStr">
+        <is>
+          <t>segment_083.npy</t>
+        </is>
+      </c>
+      <c r="AE85" t="inlineStr">
+        <is>
+          <t>segment_383.npy</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -11194,6 +12894,26 @@
           <t>segment_384.npy</t>
         </is>
       </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>segment_084.npy</t>
+        </is>
+      </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>segment_384.npy</t>
+        </is>
+      </c>
+      <c r="AD86" t="inlineStr">
+        <is>
+          <t>segment_084.npy</t>
+        </is>
+      </c>
+      <c r="AE86" t="inlineStr">
+        <is>
+          <t>segment_384.npy</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -11319,6 +13039,26 @@
           <t>segment_385.npy</t>
         </is>
       </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>segment_085.npy</t>
+        </is>
+      </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>segment_385.npy</t>
+        </is>
+      </c>
+      <c r="AD87" t="inlineStr">
+        <is>
+          <t>segment_085.npy</t>
+        </is>
+      </c>
+      <c r="AE87" t="inlineStr">
+        <is>
+          <t>segment_385.npy</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -11444,6 +13184,26 @@
           <t>segment_386.npy</t>
         </is>
       </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>segment_086.npy</t>
+        </is>
+      </c>
+      <c r="AC88" t="inlineStr">
+        <is>
+          <t>segment_386.npy</t>
+        </is>
+      </c>
+      <c r="AD88" t="inlineStr">
+        <is>
+          <t>segment_086.npy</t>
+        </is>
+      </c>
+      <c r="AE88" t="inlineStr">
+        <is>
+          <t>segment_386.npy</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -11569,6 +13329,26 @@
           <t>segment_387.npy</t>
         </is>
       </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>segment_087.npy</t>
+        </is>
+      </c>
+      <c r="AC89" t="inlineStr">
+        <is>
+          <t>segment_387.npy</t>
+        </is>
+      </c>
+      <c r="AD89" t="inlineStr">
+        <is>
+          <t>segment_087.npy</t>
+        </is>
+      </c>
+      <c r="AE89" t="inlineStr">
+        <is>
+          <t>segment_387.npy</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -11694,6 +13474,26 @@
           <t>segment_388.npy</t>
         </is>
       </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>segment_088.npy</t>
+        </is>
+      </c>
+      <c r="AC90" t="inlineStr">
+        <is>
+          <t>segment_388.npy</t>
+        </is>
+      </c>
+      <c r="AD90" t="inlineStr">
+        <is>
+          <t>segment_088.npy</t>
+        </is>
+      </c>
+      <c r="AE90" t="inlineStr">
+        <is>
+          <t>segment_388.npy</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -11819,6 +13619,26 @@
           <t>segment_389.npy</t>
         </is>
       </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>segment_089.npy</t>
+        </is>
+      </c>
+      <c r="AC91" t="inlineStr">
+        <is>
+          <t>segment_389.npy</t>
+        </is>
+      </c>
+      <c r="AD91" t="inlineStr">
+        <is>
+          <t>segment_089.npy</t>
+        </is>
+      </c>
+      <c r="AE91" t="inlineStr">
+        <is>
+          <t>segment_389.npy</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -11944,6 +13764,26 @@
           <t>segment_390.npy</t>
         </is>
       </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>segment_090.npy</t>
+        </is>
+      </c>
+      <c r="AC92" t="inlineStr">
+        <is>
+          <t>segment_390.npy</t>
+        </is>
+      </c>
+      <c r="AD92" t="inlineStr">
+        <is>
+          <t>segment_090.npy</t>
+        </is>
+      </c>
+      <c r="AE92" t="inlineStr">
+        <is>
+          <t>segment_390.npy</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -12069,6 +13909,26 @@
           <t>segment_391.npy</t>
         </is>
       </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>segment_091.npy</t>
+        </is>
+      </c>
+      <c r="AC93" t="inlineStr">
+        <is>
+          <t>segment_391.npy</t>
+        </is>
+      </c>
+      <c r="AD93" t="inlineStr">
+        <is>
+          <t>segment_091.npy</t>
+        </is>
+      </c>
+      <c r="AE93" t="inlineStr">
+        <is>
+          <t>segment_391.npy</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -12194,6 +14054,26 @@
           <t>segment_392.npy</t>
         </is>
       </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>segment_092.npy</t>
+        </is>
+      </c>
+      <c r="AC94" t="inlineStr">
+        <is>
+          <t>segment_392.npy</t>
+        </is>
+      </c>
+      <c r="AD94" t="inlineStr">
+        <is>
+          <t>segment_092.npy</t>
+        </is>
+      </c>
+      <c r="AE94" t="inlineStr">
+        <is>
+          <t>segment_392.npy</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -12319,6 +14199,26 @@
           <t>segment_393.npy</t>
         </is>
       </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>segment_093.npy</t>
+        </is>
+      </c>
+      <c r="AC95" t="inlineStr">
+        <is>
+          <t>segment_393.npy</t>
+        </is>
+      </c>
+      <c r="AD95" t="inlineStr">
+        <is>
+          <t>segment_093.npy</t>
+        </is>
+      </c>
+      <c r="AE95" t="inlineStr">
+        <is>
+          <t>segment_393.npy</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -12444,6 +14344,26 @@
           <t>segment_394.npy</t>
         </is>
       </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>segment_094.npy</t>
+        </is>
+      </c>
+      <c r="AC96" t="inlineStr">
+        <is>
+          <t>segment_394.npy</t>
+        </is>
+      </c>
+      <c r="AD96" t="inlineStr">
+        <is>
+          <t>segment_094.npy</t>
+        </is>
+      </c>
+      <c r="AE96" t="inlineStr">
+        <is>
+          <t>segment_394.npy</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -12569,6 +14489,26 @@
           <t>segment_395.npy</t>
         </is>
       </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>segment_095.npy</t>
+        </is>
+      </c>
+      <c r="AC97" t="inlineStr">
+        <is>
+          <t>segment_395.npy</t>
+        </is>
+      </c>
+      <c r="AD97" t="inlineStr">
+        <is>
+          <t>segment_095.npy</t>
+        </is>
+      </c>
+      <c r="AE97" t="inlineStr">
+        <is>
+          <t>segment_395.npy</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -12694,6 +14634,26 @@
           <t>segment_396.npy</t>
         </is>
       </c>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>segment_096.npy</t>
+        </is>
+      </c>
+      <c r="AC98" t="inlineStr">
+        <is>
+          <t>segment_396.npy</t>
+        </is>
+      </c>
+      <c r="AD98" t="inlineStr">
+        <is>
+          <t>segment_096.npy</t>
+        </is>
+      </c>
+      <c r="AE98" t="inlineStr">
+        <is>
+          <t>segment_396.npy</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -12819,6 +14779,26 @@
           <t>segment_397.npy</t>
         </is>
       </c>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>segment_097.npy</t>
+        </is>
+      </c>
+      <c r="AC99" t="inlineStr">
+        <is>
+          <t>segment_397.npy</t>
+        </is>
+      </c>
+      <c r="AD99" t="inlineStr">
+        <is>
+          <t>segment_097.npy</t>
+        </is>
+      </c>
+      <c r="AE99" t="inlineStr">
+        <is>
+          <t>segment_397.npy</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -12944,6 +14924,26 @@
           <t>segment_398.npy</t>
         </is>
       </c>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>segment_098.npy</t>
+        </is>
+      </c>
+      <c r="AC100" t="inlineStr">
+        <is>
+          <t>segment_398.npy</t>
+        </is>
+      </c>
+      <c r="AD100" t="inlineStr">
+        <is>
+          <t>segment_098.npy</t>
+        </is>
+      </c>
+      <c r="AE100" t="inlineStr">
+        <is>
+          <t>segment_398.npy</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -13069,6 +15069,26 @@
           <t>segment_399.npy</t>
         </is>
       </c>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>segment_099.npy</t>
+        </is>
+      </c>
+      <c r="AC101" t="inlineStr">
+        <is>
+          <t>segment_399.npy</t>
+        </is>
+      </c>
+      <c r="AD101" t="inlineStr">
+        <is>
+          <t>segment_099.npy</t>
+        </is>
+      </c>
+      <c r="AE101" t="inlineStr">
+        <is>
+          <t>segment_399.npy</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -13194,6 +15214,26 @@
           <t>segment_400.npy</t>
         </is>
       </c>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>segment_100.npy</t>
+        </is>
+      </c>
+      <c r="AC102" t="inlineStr">
+        <is>
+          <t>segment_400.npy</t>
+        </is>
+      </c>
+      <c r="AD102" t="inlineStr">
+        <is>
+          <t>segment_100.npy</t>
+        </is>
+      </c>
+      <c r="AE102" t="inlineStr">
+        <is>
+          <t>segment_400.npy</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -13319,6 +15359,26 @@
           <t>segment_401.npy</t>
         </is>
       </c>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>segment_101.npy</t>
+        </is>
+      </c>
+      <c r="AC103" t="inlineStr">
+        <is>
+          <t>segment_401.npy</t>
+        </is>
+      </c>
+      <c r="AD103" t="inlineStr">
+        <is>
+          <t>segment_101.npy</t>
+        </is>
+      </c>
+      <c r="AE103" t="inlineStr">
+        <is>
+          <t>segment_401.npy</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -13444,6 +15504,26 @@
           <t>segment_402.npy</t>
         </is>
       </c>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>segment_102.npy</t>
+        </is>
+      </c>
+      <c r="AC104" t="inlineStr">
+        <is>
+          <t>segment_402.npy</t>
+        </is>
+      </c>
+      <c r="AD104" t="inlineStr">
+        <is>
+          <t>segment_102.npy</t>
+        </is>
+      </c>
+      <c r="AE104" t="inlineStr">
+        <is>
+          <t>segment_402.npy</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -13569,6 +15649,26 @@
           <t>segment_403.npy</t>
         </is>
       </c>
+      <c r="AB105" t="inlineStr">
+        <is>
+          <t>segment_103.npy</t>
+        </is>
+      </c>
+      <c r="AC105" t="inlineStr">
+        <is>
+          <t>segment_403.npy</t>
+        </is>
+      </c>
+      <c r="AD105" t="inlineStr">
+        <is>
+          <t>segment_103.npy</t>
+        </is>
+      </c>
+      <c r="AE105" t="inlineStr">
+        <is>
+          <t>segment_403.npy</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -13694,6 +15794,26 @@
           <t>segment_404.npy</t>
         </is>
       </c>
+      <c r="AB106" t="inlineStr">
+        <is>
+          <t>segment_104.npy</t>
+        </is>
+      </c>
+      <c r="AC106" t="inlineStr">
+        <is>
+          <t>segment_404.npy</t>
+        </is>
+      </c>
+      <c r="AD106" t="inlineStr">
+        <is>
+          <t>segment_104.npy</t>
+        </is>
+      </c>
+      <c r="AE106" t="inlineStr">
+        <is>
+          <t>segment_404.npy</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -13819,6 +15939,26 @@
           <t>segment_405.npy</t>
         </is>
       </c>
+      <c r="AB107" t="inlineStr">
+        <is>
+          <t>segment_105.npy</t>
+        </is>
+      </c>
+      <c r="AC107" t="inlineStr">
+        <is>
+          <t>segment_405.npy</t>
+        </is>
+      </c>
+      <c r="AD107" t="inlineStr">
+        <is>
+          <t>segment_105.npy</t>
+        </is>
+      </c>
+      <c r="AE107" t="inlineStr">
+        <is>
+          <t>segment_405.npy</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -13944,6 +16084,26 @@
           <t>segment_406.npy</t>
         </is>
       </c>
+      <c r="AB108" t="inlineStr">
+        <is>
+          <t>segment_106.npy</t>
+        </is>
+      </c>
+      <c r="AC108" t="inlineStr">
+        <is>
+          <t>segment_406.npy</t>
+        </is>
+      </c>
+      <c r="AD108" t="inlineStr">
+        <is>
+          <t>segment_106.npy</t>
+        </is>
+      </c>
+      <c r="AE108" t="inlineStr">
+        <is>
+          <t>segment_406.npy</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -14069,6 +16229,26 @@
           <t>segment_407.npy</t>
         </is>
       </c>
+      <c r="AB109" t="inlineStr">
+        <is>
+          <t>segment_107.npy</t>
+        </is>
+      </c>
+      <c r="AC109" t="inlineStr">
+        <is>
+          <t>segment_407.npy</t>
+        </is>
+      </c>
+      <c r="AD109" t="inlineStr">
+        <is>
+          <t>segment_107.npy</t>
+        </is>
+      </c>
+      <c r="AE109" t="inlineStr">
+        <is>
+          <t>segment_407.npy</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -14194,6 +16374,26 @@
           <t>segment_408.npy</t>
         </is>
       </c>
+      <c r="AB110" t="inlineStr">
+        <is>
+          <t>segment_108.npy</t>
+        </is>
+      </c>
+      <c r="AC110" t="inlineStr">
+        <is>
+          <t>segment_408.npy</t>
+        </is>
+      </c>
+      <c r="AD110" t="inlineStr">
+        <is>
+          <t>segment_108.npy</t>
+        </is>
+      </c>
+      <c r="AE110" t="inlineStr">
+        <is>
+          <t>segment_408.npy</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -14319,6 +16519,26 @@
           <t>segment_409.npy</t>
         </is>
       </c>
+      <c r="AB111" t="inlineStr">
+        <is>
+          <t>segment_109.npy</t>
+        </is>
+      </c>
+      <c r="AC111" t="inlineStr">
+        <is>
+          <t>segment_409.npy</t>
+        </is>
+      </c>
+      <c r="AD111" t="inlineStr">
+        <is>
+          <t>segment_109.npy</t>
+        </is>
+      </c>
+      <c r="AE111" t="inlineStr">
+        <is>
+          <t>segment_409.npy</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -14444,6 +16664,26 @@
           <t>segment_410.npy</t>
         </is>
       </c>
+      <c r="AB112" t="inlineStr">
+        <is>
+          <t>segment_110.npy</t>
+        </is>
+      </c>
+      <c r="AC112" t="inlineStr">
+        <is>
+          <t>segment_410.npy</t>
+        </is>
+      </c>
+      <c r="AD112" t="inlineStr">
+        <is>
+          <t>segment_110.npy</t>
+        </is>
+      </c>
+      <c r="AE112" t="inlineStr">
+        <is>
+          <t>segment_410.npy</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -14569,6 +16809,26 @@
           <t>segment_411.npy</t>
         </is>
       </c>
+      <c r="AB113" t="inlineStr">
+        <is>
+          <t>segment_111.npy</t>
+        </is>
+      </c>
+      <c r="AC113" t="inlineStr">
+        <is>
+          <t>segment_411.npy</t>
+        </is>
+      </c>
+      <c r="AD113" t="inlineStr">
+        <is>
+          <t>segment_111.npy</t>
+        </is>
+      </c>
+      <c r="AE113" t="inlineStr">
+        <is>
+          <t>segment_411.npy</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -14694,6 +16954,26 @@
           <t>segment_412.npy</t>
         </is>
       </c>
+      <c r="AB114" t="inlineStr">
+        <is>
+          <t>segment_112.npy</t>
+        </is>
+      </c>
+      <c r="AC114" t="inlineStr">
+        <is>
+          <t>segment_412.npy</t>
+        </is>
+      </c>
+      <c r="AD114" t="inlineStr">
+        <is>
+          <t>segment_112.npy</t>
+        </is>
+      </c>
+      <c r="AE114" t="inlineStr">
+        <is>
+          <t>segment_412.npy</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -14819,6 +17099,26 @@
           <t>segment_413.npy</t>
         </is>
       </c>
+      <c r="AB115" t="inlineStr">
+        <is>
+          <t>segment_113.npy</t>
+        </is>
+      </c>
+      <c r="AC115" t="inlineStr">
+        <is>
+          <t>segment_413.npy</t>
+        </is>
+      </c>
+      <c r="AD115" t="inlineStr">
+        <is>
+          <t>segment_113.npy</t>
+        </is>
+      </c>
+      <c r="AE115" t="inlineStr">
+        <is>
+          <t>segment_413.npy</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -14944,6 +17244,26 @@
           <t>segment_414.npy</t>
         </is>
       </c>
+      <c r="AB116" t="inlineStr">
+        <is>
+          <t>segment_114.npy</t>
+        </is>
+      </c>
+      <c r="AC116" t="inlineStr">
+        <is>
+          <t>segment_414.npy</t>
+        </is>
+      </c>
+      <c r="AD116" t="inlineStr">
+        <is>
+          <t>segment_114.npy</t>
+        </is>
+      </c>
+      <c r="AE116" t="inlineStr">
+        <is>
+          <t>segment_414.npy</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -15069,6 +17389,26 @@
           <t>segment_415.npy</t>
         </is>
       </c>
+      <c r="AB117" t="inlineStr">
+        <is>
+          <t>segment_115.npy</t>
+        </is>
+      </c>
+      <c r="AC117" t="inlineStr">
+        <is>
+          <t>segment_415.npy</t>
+        </is>
+      </c>
+      <c r="AD117" t="inlineStr">
+        <is>
+          <t>segment_115.npy</t>
+        </is>
+      </c>
+      <c r="AE117" t="inlineStr">
+        <is>
+          <t>segment_415.npy</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -15194,6 +17534,26 @@
           <t>segment_416.npy</t>
         </is>
       </c>
+      <c r="AB118" t="inlineStr">
+        <is>
+          <t>segment_116.npy</t>
+        </is>
+      </c>
+      <c r="AC118" t="inlineStr">
+        <is>
+          <t>segment_416.npy</t>
+        </is>
+      </c>
+      <c r="AD118" t="inlineStr">
+        <is>
+          <t>segment_116.npy</t>
+        </is>
+      </c>
+      <c r="AE118" t="inlineStr">
+        <is>
+          <t>segment_416.npy</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -15319,6 +17679,26 @@
           <t>segment_417.npy</t>
         </is>
       </c>
+      <c r="AB119" t="inlineStr">
+        <is>
+          <t>segment_117.npy</t>
+        </is>
+      </c>
+      <c r="AC119" t="inlineStr">
+        <is>
+          <t>segment_417.npy</t>
+        </is>
+      </c>
+      <c r="AD119" t="inlineStr">
+        <is>
+          <t>segment_117.npy</t>
+        </is>
+      </c>
+      <c r="AE119" t="inlineStr">
+        <is>
+          <t>segment_417.npy</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -15444,6 +17824,26 @@
           <t>segment_418.npy</t>
         </is>
       </c>
+      <c r="AB120" t="inlineStr">
+        <is>
+          <t>segment_118.npy</t>
+        </is>
+      </c>
+      <c r="AC120" t="inlineStr">
+        <is>
+          <t>segment_418.npy</t>
+        </is>
+      </c>
+      <c r="AD120" t="inlineStr">
+        <is>
+          <t>segment_118.npy</t>
+        </is>
+      </c>
+      <c r="AE120" t="inlineStr">
+        <is>
+          <t>segment_418.npy</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -15569,6 +17969,26 @@
           <t>segment_419.npy</t>
         </is>
       </c>
+      <c r="AB121" t="inlineStr">
+        <is>
+          <t>segment_119.npy</t>
+        </is>
+      </c>
+      <c r="AC121" t="inlineStr">
+        <is>
+          <t>segment_419.npy</t>
+        </is>
+      </c>
+      <c r="AD121" t="inlineStr">
+        <is>
+          <t>segment_119.npy</t>
+        </is>
+      </c>
+      <c r="AE121" t="inlineStr">
+        <is>
+          <t>segment_419.npy</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -15694,6 +18114,26 @@
           <t>segment_420.npy</t>
         </is>
       </c>
+      <c r="AB122" t="inlineStr">
+        <is>
+          <t>segment_120.npy</t>
+        </is>
+      </c>
+      <c r="AC122" t="inlineStr">
+        <is>
+          <t>segment_420.npy</t>
+        </is>
+      </c>
+      <c r="AD122" t="inlineStr">
+        <is>
+          <t>segment_120.npy</t>
+        </is>
+      </c>
+      <c r="AE122" t="inlineStr">
+        <is>
+          <t>segment_420.npy</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -15819,6 +18259,26 @@
           <t>segment_421.npy</t>
         </is>
       </c>
+      <c r="AB123" t="inlineStr">
+        <is>
+          <t>segment_121.npy</t>
+        </is>
+      </c>
+      <c r="AC123" t="inlineStr">
+        <is>
+          <t>segment_421.npy</t>
+        </is>
+      </c>
+      <c r="AD123" t="inlineStr">
+        <is>
+          <t>segment_121.npy</t>
+        </is>
+      </c>
+      <c r="AE123" t="inlineStr">
+        <is>
+          <t>segment_421.npy</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -15944,6 +18404,26 @@
           <t>segment_422.npy</t>
         </is>
       </c>
+      <c r="AB124" t="inlineStr">
+        <is>
+          <t>segment_122.npy</t>
+        </is>
+      </c>
+      <c r="AC124" t="inlineStr">
+        <is>
+          <t>segment_422.npy</t>
+        </is>
+      </c>
+      <c r="AD124" t="inlineStr">
+        <is>
+          <t>segment_122.npy</t>
+        </is>
+      </c>
+      <c r="AE124" t="inlineStr">
+        <is>
+          <t>segment_422.npy</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -16069,6 +18549,26 @@
           <t>segment_423.npy</t>
         </is>
       </c>
+      <c r="AB125" t="inlineStr">
+        <is>
+          <t>segment_123.npy</t>
+        </is>
+      </c>
+      <c r="AC125" t="inlineStr">
+        <is>
+          <t>segment_423.npy</t>
+        </is>
+      </c>
+      <c r="AD125" t="inlineStr">
+        <is>
+          <t>segment_123.npy</t>
+        </is>
+      </c>
+      <c r="AE125" t="inlineStr">
+        <is>
+          <t>segment_423.npy</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -16194,6 +18694,26 @@
           <t>segment_424.npy</t>
         </is>
       </c>
+      <c r="AB126" t="inlineStr">
+        <is>
+          <t>segment_124.npy</t>
+        </is>
+      </c>
+      <c r="AC126" t="inlineStr">
+        <is>
+          <t>segment_424.npy</t>
+        </is>
+      </c>
+      <c r="AD126" t="inlineStr">
+        <is>
+          <t>segment_124.npy</t>
+        </is>
+      </c>
+      <c r="AE126" t="inlineStr">
+        <is>
+          <t>segment_424.npy</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -16319,6 +18839,26 @@
           <t>segment_425.npy</t>
         </is>
       </c>
+      <c r="AB127" t="inlineStr">
+        <is>
+          <t>segment_125.npy</t>
+        </is>
+      </c>
+      <c r="AC127" t="inlineStr">
+        <is>
+          <t>segment_425.npy</t>
+        </is>
+      </c>
+      <c r="AD127" t="inlineStr">
+        <is>
+          <t>segment_125.npy</t>
+        </is>
+      </c>
+      <c r="AE127" t="inlineStr">
+        <is>
+          <t>segment_425.npy</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -16444,6 +18984,26 @@
           <t>segment_426.npy</t>
         </is>
       </c>
+      <c r="AB128" t="inlineStr">
+        <is>
+          <t>segment_126.npy</t>
+        </is>
+      </c>
+      <c r="AC128" t="inlineStr">
+        <is>
+          <t>segment_426.npy</t>
+        </is>
+      </c>
+      <c r="AD128" t="inlineStr">
+        <is>
+          <t>segment_126.npy</t>
+        </is>
+      </c>
+      <c r="AE128" t="inlineStr">
+        <is>
+          <t>segment_426.npy</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -16569,6 +19129,26 @@
           <t>segment_427.npy</t>
         </is>
       </c>
+      <c r="AB129" t="inlineStr">
+        <is>
+          <t>segment_127.npy</t>
+        </is>
+      </c>
+      <c r="AC129" t="inlineStr">
+        <is>
+          <t>segment_427.npy</t>
+        </is>
+      </c>
+      <c r="AD129" t="inlineStr">
+        <is>
+          <t>segment_127.npy</t>
+        </is>
+      </c>
+      <c r="AE129" t="inlineStr">
+        <is>
+          <t>segment_427.npy</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -16694,6 +19274,26 @@
           <t>segment_428.npy</t>
         </is>
       </c>
+      <c r="AB130" t="inlineStr">
+        <is>
+          <t>segment_128.npy</t>
+        </is>
+      </c>
+      <c r="AC130" t="inlineStr">
+        <is>
+          <t>segment_428.npy</t>
+        </is>
+      </c>
+      <c r="AD130" t="inlineStr">
+        <is>
+          <t>segment_128.npy</t>
+        </is>
+      </c>
+      <c r="AE130" t="inlineStr">
+        <is>
+          <t>segment_428.npy</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -16819,6 +19419,26 @@
           <t>segment_429.npy</t>
         </is>
       </c>
+      <c r="AB131" t="inlineStr">
+        <is>
+          <t>segment_129.npy</t>
+        </is>
+      </c>
+      <c r="AC131" t="inlineStr">
+        <is>
+          <t>segment_429.npy</t>
+        </is>
+      </c>
+      <c r="AD131" t="inlineStr">
+        <is>
+          <t>segment_129.npy</t>
+        </is>
+      </c>
+      <c r="AE131" t="inlineStr">
+        <is>
+          <t>segment_429.npy</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -16944,6 +19564,26 @@
           <t>segment_430.npy</t>
         </is>
       </c>
+      <c r="AB132" t="inlineStr">
+        <is>
+          <t>segment_130.npy</t>
+        </is>
+      </c>
+      <c r="AC132" t="inlineStr">
+        <is>
+          <t>segment_430.npy</t>
+        </is>
+      </c>
+      <c r="AD132" t="inlineStr">
+        <is>
+          <t>segment_130.npy</t>
+        </is>
+      </c>
+      <c r="AE132" t="inlineStr">
+        <is>
+          <t>segment_430.npy</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -17069,6 +19709,26 @@
           <t>segment_431.npy</t>
         </is>
       </c>
+      <c r="AB133" t="inlineStr">
+        <is>
+          <t>segment_131.npy</t>
+        </is>
+      </c>
+      <c r="AC133" t="inlineStr">
+        <is>
+          <t>segment_431.npy</t>
+        </is>
+      </c>
+      <c r="AD133" t="inlineStr">
+        <is>
+          <t>segment_131.npy</t>
+        </is>
+      </c>
+      <c r="AE133" t="inlineStr">
+        <is>
+          <t>segment_431.npy</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -17194,6 +19854,26 @@
           <t>segment_432.npy</t>
         </is>
       </c>
+      <c r="AB134" t="inlineStr">
+        <is>
+          <t>segment_132.npy</t>
+        </is>
+      </c>
+      <c r="AC134" t="inlineStr">
+        <is>
+          <t>segment_432.npy</t>
+        </is>
+      </c>
+      <c r="AD134" t="inlineStr">
+        <is>
+          <t>segment_132.npy</t>
+        </is>
+      </c>
+      <c r="AE134" t="inlineStr">
+        <is>
+          <t>segment_432.npy</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -17319,6 +19999,26 @@
           <t>segment_433.npy</t>
         </is>
       </c>
+      <c r="AB135" t="inlineStr">
+        <is>
+          <t>segment_133.npy</t>
+        </is>
+      </c>
+      <c r="AC135" t="inlineStr">
+        <is>
+          <t>segment_433.npy</t>
+        </is>
+      </c>
+      <c r="AD135" t="inlineStr">
+        <is>
+          <t>segment_133.npy</t>
+        </is>
+      </c>
+      <c r="AE135" t="inlineStr">
+        <is>
+          <t>segment_433.npy</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -17444,6 +20144,26 @@
           <t>segment_434.npy</t>
         </is>
       </c>
+      <c r="AB136" t="inlineStr">
+        <is>
+          <t>segment_134.npy</t>
+        </is>
+      </c>
+      <c r="AC136" t="inlineStr">
+        <is>
+          <t>segment_434.npy</t>
+        </is>
+      </c>
+      <c r="AD136" t="inlineStr">
+        <is>
+          <t>segment_134.npy</t>
+        </is>
+      </c>
+      <c r="AE136" t="inlineStr">
+        <is>
+          <t>segment_434.npy</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -17569,6 +20289,26 @@
           <t>segment_435.npy</t>
         </is>
       </c>
+      <c r="AB137" t="inlineStr">
+        <is>
+          <t>segment_135.npy</t>
+        </is>
+      </c>
+      <c r="AC137" t="inlineStr">
+        <is>
+          <t>segment_435.npy</t>
+        </is>
+      </c>
+      <c r="AD137" t="inlineStr">
+        <is>
+          <t>segment_135.npy</t>
+        </is>
+      </c>
+      <c r="AE137" t="inlineStr">
+        <is>
+          <t>segment_435.npy</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -17694,6 +20434,26 @@
           <t>segment_436.npy</t>
         </is>
       </c>
+      <c r="AB138" t="inlineStr">
+        <is>
+          <t>segment_136.npy</t>
+        </is>
+      </c>
+      <c r="AC138" t="inlineStr">
+        <is>
+          <t>segment_436.npy</t>
+        </is>
+      </c>
+      <c r="AD138" t="inlineStr">
+        <is>
+          <t>segment_136.npy</t>
+        </is>
+      </c>
+      <c r="AE138" t="inlineStr">
+        <is>
+          <t>segment_436.npy</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -17819,6 +20579,26 @@
           <t>segment_437.npy</t>
         </is>
       </c>
+      <c r="AB139" t="inlineStr">
+        <is>
+          <t>segment_137.npy</t>
+        </is>
+      </c>
+      <c r="AC139" t="inlineStr">
+        <is>
+          <t>segment_437.npy</t>
+        </is>
+      </c>
+      <c r="AD139" t="inlineStr">
+        <is>
+          <t>segment_137.npy</t>
+        </is>
+      </c>
+      <c r="AE139" t="inlineStr">
+        <is>
+          <t>segment_437.npy</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -17944,6 +20724,26 @@
           <t>segment_438.npy</t>
         </is>
       </c>
+      <c r="AB140" t="inlineStr">
+        <is>
+          <t>segment_138.npy</t>
+        </is>
+      </c>
+      <c r="AC140" t="inlineStr">
+        <is>
+          <t>segment_438.npy</t>
+        </is>
+      </c>
+      <c r="AD140" t="inlineStr">
+        <is>
+          <t>segment_138.npy</t>
+        </is>
+      </c>
+      <c r="AE140" t="inlineStr">
+        <is>
+          <t>segment_438.npy</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -18069,6 +20869,26 @@
           <t>segment_439.npy</t>
         </is>
       </c>
+      <c r="AB141" t="inlineStr">
+        <is>
+          <t>segment_139.npy</t>
+        </is>
+      </c>
+      <c r="AC141" t="inlineStr">
+        <is>
+          <t>segment_439.npy</t>
+        </is>
+      </c>
+      <c r="AD141" t="inlineStr">
+        <is>
+          <t>segment_139.npy</t>
+        </is>
+      </c>
+      <c r="AE141" t="inlineStr">
+        <is>
+          <t>segment_439.npy</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -18194,6 +21014,26 @@
           <t>segment_440.npy</t>
         </is>
       </c>
+      <c r="AB142" t="inlineStr">
+        <is>
+          <t>segment_140.npy</t>
+        </is>
+      </c>
+      <c r="AC142" t="inlineStr">
+        <is>
+          <t>segment_440.npy</t>
+        </is>
+      </c>
+      <c r="AD142" t="inlineStr">
+        <is>
+          <t>segment_140.npy</t>
+        </is>
+      </c>
+      <c r="AE142" t="inlineStr">
+        <is>
+          <t>segment_440.npy</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -18319,6 +21159,26 @@
           <t>segment_441.npy</t>
         </is>
       </c>
+      <c r="AB143" t="inlineStr">
+        <is>
+          <t>segment_141.npy</t>
+        </is>
+      </c>
+      <c r="AC143" t="inlineStr">
+        <is>
+          <t>segment_441.npy</t>
+        </is>
+      </c>
+      <c r="AD143" t="inlineStr">
+        <is>
+          <t>segment_141.npy</t>
+        </is>
+      </c>
+      <c r="AE143" t="inlineStr">
+        <is>
+          <t>segment_441.npy</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -18444,6 +21304,26 @@
           <t>segment_442.npy</t>
         </is>
       </c>
+      <c r="AB144" t="inlineStr">
+        <is>
+          <t>segment_142.npy</t>
+        </is>
+      </c>
+      <c r="AC144" t="inlineStr">
+        <is>
+          <t>segment_442.npy</t>
+        </is>
+      </c>
+      <c r="AD144" t="inlineStr">
+        <is>
+          <t>segment_142.npy</t>
+        </is>
+      </c>
+      <c r="AE144" t="inlineStr">
+        <is>
+          <t>segment_442.npy</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -18569,6 +21449,26 @@
           <t>segment_443.npy</t>
         </is>
       </c>
+      <c r="AB145" t="inlineStr">
+        <is>
+          <t>segment_143.npy</t>
+        </is>
+      </c>
+      <c r="AC145" t="inlineStr">
+        <is>
+          <t>segment_443.npy</t>
+        </is>
+      </c>
+      <c r="AD145" t="inlineStr">
+        <is>
+          <t>segment_143.npy</t>
+        </is>
+      </c>
+      <c r="AE145" t="inlineStr">
+        <is>
+          <t>segment_443.npy</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -18694,6 +21594,26 @@
           <t>segment_444.npy</t>
         </is>
       </c>
+      <c r="AB146" t="inlineStr">
+        <is>
+          <t>segment_144.npy</t>
+        </is>
+      </c>
+      <c r="AC146" t="inlineStr">
+        <is>
+          <t>segment_444.npy</t>
+        </is>
+      </c>
+      <c r="AD146" t="inlineStr">
+        <is>
+          <t>segment_144.npy</t>
+        </is>
+      </c>
+      <c r="AE146" t="inlineStr">
+        <is>
+          <t>segment_444.npy</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -18819,6 +21739,26 @@
           <t>segment_445.npy</t>
         </is>
       </c>
+      <c r="AB147" t="inlineStr">
+        <is>
+          <t>segment_145.npy</t>
+        </is>
+      </c>
+      <c r="AC147" t="inlineStr">
+        <is>
+          <t>segment_445.npy</t>
+        </is>
+      </c>
+      <c r="AD147" t="inlineStr">
+        <is>
+          <t>segment_145.npy</t>
+        </is>
+      </c>
+      <c r="AE147" t="inlineStr">
+        <is>
+          <t>segment_445.npy</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -18944,6 +21884,26 @@
           <t>segment_446.npy</t>
         </is>
       </c>
+      <c r="AB148" t="inlineStr">
+        <is>
+          <t>segment_146.npy</t>
+        </is>
+      </c>
+      <c r="AC148" t="inlineStr">
+        <is>
+          <t>segment_446.npy</t>
+        </is>
+      </c>
+      <c r="AD148" t="inlineStr">
+        <is>
+          <t>segment_146.npy</t>
+        </is>
+      </c>
+      <c r="AE148" t="inlineStr">
+        <is>
+          <t>segment_446.npy</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -19069,6 +22029,26 @@
           <t>segment_447.npy</t>
         </is>
       </c>
+      <c r="AB149" t="inlineStr">
+        <is>
+          <t>segment_147.npy</t>
+        </is>
+      </c>
+      <c r="AC149" t="inlineStr">
+        <is>
+          <t>segment_447.npy</t>
+        </is>
+      </c>
+      <c r="AD149" t="inlineStr">
+        <is>
+          <t>segment_147.npy</t>
+        </is>
+      </c>
+      <c r="AE149" t="inlineStr">
+        <is>
+          <t>segment_447.npy</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -19194,6 +22174,26 @@
           <t>segment_448.npy</t>
         </is>
       </c>
+      <c r="AB150" t="inlineStr">
+        <is>
+          <t>segment_148.npy</t>
+        </is>
+      </c>
+      <c r="AC150" t="inlineStr">
+        <is>
+          <t>segment_448.npy</t>
+        </is>
+      </c>
+      <c r="AD150" t="inlineStr">
+        <is>
+          <t>segment_148.npy</t>
+        </is>
+      </c>
+      <c r="AE150" t="inlineStr">
+        <is>
+          <t>segment_448.npy</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -19319,6 +22319,26 @@
           <t>segment_449.npy</t>
         </is>
       </c>
+      <c r="AB151" t="inlineStr">
+        <is>
+          <t>segment_149.npy</t>
+        </is>
+      </c>
+      <c r="AC151" t="inlineStr">
+        <is>
+          <t>segment_449.npy</t>
+        </is>
+      </c>
+      <c r="AD151" t="inlineStr">
+        <is>
+          <t>segment_149.npy</t>
+        </is>
+      </c>
+      <c r="AE151" t="inlineStr">
+        <is>
+          <t>segment_449.npy</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -19444,6 +22464,26 @@
           <t>segment_450.npy</t>
         </is>
       </c>
+      <c r="AB152" t="inlineStr">
+        <is>
+          <t>segment_150.npy</t>
+        </is>
+      </c>
+      <c r="AC152" t="inlineStr">
+        <is>
+          <t>segment_450.npy</t>
+        </is>
+      </c>
+      <c r="AD152" t="inlineStr">
+        <is>
+          <t>segment_150.npy</t>
+        </is>
+      </c>
+      <c r="AE152" t="inlineStr">
+        <is>
+          <t>segment_450.npy</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -19569,6 +22609,26 @@
           <t>segment_451.npy</t>
         </is>
       </c>
+      <c r="AB153" t="inlineStr">
+        <is>
+          <t>segment_151.npy</t>
+        </is>
+      </c>
+      <c r="AC153" t="inlineStr">
+        <is>
+          <t>segment_451.npy</t>
+        </is>
+      </c>
+      <c r="AD153" t="inlineStr">
+        <is>
+          <t>segment_151.npy</t>
+        </is>
+      </c>
+      <c r="AE153" t="inlineStr">
+        <is>
+          <t>segment_451.npy</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -19694,6 +22754,26 @@
           <t>segment_452.npy</t>
         </is>
       </c>
+      <c r="AB154" t="inlineStr">
+        <is>
+          <t>segment_152.npy</t>
+        </is>
+      </c>
+      <c r="AC154" t="inlineStr">
+        <is>
+          <t>segment_452.npy</t>
+        </is>
+      </c>
+      <c r="AD154" t="inlineStr">
+        <is>
+          <t>segment_152.npy</t>
+        </is>
+      </c>
+      <c r="AE154" t="inlineStr">
+        <is>
+          <t>segment_452.npy</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -19819,6 +22899,26 @@
           <t>segment_453.npy</t>
         </is>
       </c>
+      <c r="AB155" t="inlineStr">
+        <is>
+          <t>segment_153.npy</t>
+        </is>
+      </c>
+      <c r="AC155" t="inlineStr">
+        <is>
+          <t>segment_453.npy</t>
+        </is>
+      </c>
+      <c r="AD155" t="inlineStr">
+        <is>
+          <t>segment_153.npy</t>
+        </is>
+      </c>
+      <c r="AE155" t="inlineStr">
+        <is>
+          <t>segment_453.npy</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -19944,6 +23044,26 @@
           <t>segment_454.npy</t>
         </is>
       </c>
+      <c r="AB156" t="inlineStr">
+        <is>
+          <t>segment_154.npy</t>
+        </is>
+      </c>
+      <c r="AC156" t="inlineStr">
+        <is>
+          <t>segment_454.npy</t>
+        </is>
+      </c>
+      <c r="AD156" t="inlineStr">
+        <is>
+          <t>segment_154.npy</t>
+        </is>
+      </c>
+      <c r="AE156" t="inlineStr">
+        <is>
+          <t>segment_454.npy</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -20069,6 +23189,26 @@
           <t>segment_455.npy</t>
         </is>
       </c>
+      <c r="AB157" t="inlineStr">
+        <is>
+          <t>segment_155.npy</t>
+        </is>
+      </c>
+      <c r="AC157" t="inlineStr">
+        <is>
+          <t>segment_455.npy</t>
+        </is>
+      </c>
+      <c r="AD157" t="inlineStr">
+        <is>
+          <t>segment_155.npy</t>
+        </is>
+      </c>
+      <c r="AE157" t="inlineStr">
+        <is>
+          <t>segment_455.npy</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -20194,6 +23334,26 @@
           <t>segment_456.npy</t>
         </is>
       </c>
+      <c r="AB158" t="inlineStr">
+        <is>
+          <t>segment_156.npy</t>
+        </is>
+      </c>
+      <c r="AC158" t="inlineStr">
+        <is>
+          <t>segment_456.npy</t>
+        </is>
+      </c>
+      <c r="AD158" t="inlineStr">
+        <is>
+          <t>segment_156.npy</t>
+        </is>
+      </c>
+      <c r="AE158" t="inlineStr">
+        <is>
+          <t>segment_456.npy</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -20319,6 +23479,26 @@
           <t>segment_457.npy</t>
         </is>
       </c>
+      <c r="AB159" t="inlineStr">
+        <is>
+          <t>segment_157.npy</t>
+        </is>
+      </c>
+      <c r="AC159" t="inlineStr">
+        <is>
+          <t>segment_457.npy</t>
+        </is>
+      </c>
+      <c r="AD159" t="inlineStr">
+        <is>
+          <t>segment_157.npy</t>
+        </is>
+      </c>
+      <c r="AE159" t="inlineStr">
+        <is>
+          <t>segment_457.npy</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -20444,6 +23624,26 @@
           <t>segment_458.npy</t>
         </is>
       </c>
+      <c r="AB160" t="inlineStr">
+        <is>
+          <t>segment_158.npy</t>
+        </is>
+      </c>
+      <c r="AC160" t="inlineStr">
+        <is>
+          <t>segment_458.npy</t>
+        </is>
+      </c>
+      <c r="AD160" t="inlineStr">
+        <is>
+          <t>segment_158.npy</t>
+        </is>
+      </c>
+      <c r="AE160" t="inlineStr">
+        <is>
+          <t>segment_458.npy</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -20569,6 +23769,26 @@
           <t>segment_459.npy</t>
         </is>
       </c>
+      <c r="AB161" t="inlineStr">
+        <is>
+          <t>segment_159.npy</t>
+        </is>
+      </c>
+      <c r="AC161" t="inlineStr">
+        <is>
+          <t>segment_459.npy</t>
+        </is>
+      </c>
+      <c r="AD161" t="inlineStr">
+        <is>
+          <t>segment_159.npy</t>
+        </is>
+      </c>
+      <c r="AE161" t="inlineStr">
+        <is>
+          <t>segment_459.npy</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -20694,6 +23914,26 @@
           <t>segment_460.npy</t>
         </is>
       </c>
+      <c r="AB162" t="inlineStr">
+        <is>
+          <t>segment_160.npy</t>
+        </is>
+      </c>
+      <c r="AC162" t="inlineStr">
+        <is>
+          <t>segment_460.npy</t>
+        </is>
+      </c>
+      <c r="AD162" t="inlineStr">
+        <is>
+          <t>segment_160.npy</t>
+        </is>
+      </c>
+      <c r="AE162" t="inlineStr">
+        <is>
+          <t>segment_460.npy</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -20819,6 +24059,26 @@
           <t>segment_461.npy</t>
         </is>
       </c>
+      <c r="AB163" t="inlineStr">
+        <is>
+          <t>segment_161.npy</t>
+        </is>
+      </c>
+      <c r="AC163" t="inlineStr">
+        <is>
+          <t>segment_461.npy</t>
+        </is>
+      </c>
+      <c r="AD163" t="inlineStr">
+        <is>
+          <t>segment_161.npy</t>
+        </is>
+      </c>
+      <c r="AE163" t="inlineStr">
+        <is>
+          <t>segment_461.npy</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -20944,6 +24204,26 @@
           <t>segment_462.npy</t>
         </is>
       </c>
+      <c r="AB164" t="inlineStr">
+        <is>
+          <t>segment_162.npy</t>
+        </is>
+      </c>
+      <c r="AC164" t="inlineStr">
+        <is>
+          <t>segment_462.npy</t>
+        </is>
+      </c>
+      <c r="AD164" t="inlineStr">
+        <is>
+          <t>segment_162.npy</t>
+        </is>
+      </c>
+      <c r="AE164" t="inlineStr">
+        <is>
+          <t>segment_462.npy</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -21069,6 +24349,26 @@
           <t>segment_463.npy</t>
         </is>
       </c>
+      <c r="AB165" t="inlineStr">
+        <is>
+          <t>segment_163.npy</t>
+        </is>
+      </c>
+      <c r="AC165" t="inlineStr">
+        <is>
+          <t>segment_463.npy</t>
+        </is>
+      </c>
+      <c r="AD165" t="inlineStr">
+        <is>
+          <t>segment_163.npy</t>
+        </is>
+      </c>
+      <c r="AE165" t="inlineStr">
+        <is>
+          <t>segment_463.npy</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -21194,6 +24494,26 @@
           <t>segment_464.npy</t>
         </is>
       </c>
+      <c r="AB166" t="inlineStr">
+        <is>
+          <t>segment_164.npy</t>
+        </is>
+      </c>
+      <c r="AC166" t="inlineStr">
+        <is>
+          <t>segment_464.npy</t>
+        </is>
+      </c>
+      <c r="AD166" t="inlineStr">
+        <is>
+          <t>segment_164.npy</t>
+        </is>
+      </c>
+      <c r="AE166" t="inlineStr">
+        <is>
+          <t>segment_464.npy</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -21319,6 +24639,26 @@
           <t>segment_465.npy</t>
         </is>
       </c>
+      <c r="AB167" t="inlineStr">
+        <is>
+          <t>segment_165.npy</t>
+        </is>
+      </c>
+      <c r="AC167" t="inlineStr">
+        <is>
+          <t>segment_465.npy</t>
+        </is>
+      </c>
+      <c r="AD167" t="inlineStr">
+        <is>
+          <t>segment_165.npy</t>
+        </is>
+      </c>
+      <c r="AE167" t="inlineStr">
+        <is>
+          <t>segment_465.npy</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -21444,6 +24784,26 @@
           <t>segment_466.npy</t>
         </is>
       </c>
+      <c r="AB168" t="inlineStr">
+        <is>
+          <t>segment_166.npy</t>
+        </is>
+      </c>
+      <c r="AC168" t="inlineStr">
+        <is>
+          <t>segment_466.npy</t>
+        </is>
+      </c>
+      <c r="AD168" t="inlineStr">
+        <is>
+          <t>segment_166.npy</t>
+        </is>
+      </c>
+      <c r="AE168" t="inlineStr">
+        <is>
+          <t>segment_466.npy</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -21569,6 +24929,26 @@
           <t>segment_467.npy</t>
         </is>
       </c>
+      <c r="AB169" t="inlineStr">
+        <is>
+          <t>segment_167.npy</t>
+        </is>
+      </c>
+      <c r="AC169" t="inlineStr">
+        <is>
+          <t>segment_467.npy</t>
+        </is>
+      </c>
+      <c r="AD169" t="inlineStr">
+        <is>
+          <t>segment_167.npy</t>
+        </is>
+      </c>
+      <c r="AE169" t="inlineStr">
+        <is>
+          <t>segment_467.npy</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -21694,6 +25074,26 @@
           <t>segment_468.npy</t>
         </is>
       </c>
+      <c r="AB170" t="inlineStr">
+        <is>
+          <t>segment_168.npy</t>
+        </is>
+      </c>
+      <c r="AC170" t="inlineStr">
+        <is>
+          <t>segment_468.npy</t>
+        </is>
+      </c>
+      <c r="AD170" t="inlineStr">
+        <is>
+          <t>segment_168.npy</t>
+        </is>
+      </c>
+      <c r="AE170" t="inlineStr">
+        <is>
+          <t>segment_468.npy</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -21819,6 +25219,26 @@
           <t>segment_469.npy</t>
         </is>
       </c>
+      <c r="AB171" t="inlineStr">
+        <is>
+          <t>segment_169.npy</t>
+        </is>
+      </c>
+      <c r="AC171" t="inlineStr">
+        <is>
+          <t>segment_469.npy</t>
+        </is>
+      </c>
+      <c r="AD171" t="inlineStr">
+        <is>
+          <t>segment_169.npy</t>
+        </is>
+      </c>
+      <c r="AE171" t="inlineStr">
+        <is>
+          <t>segment_469.npy</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -21944,6 +25364,26 @@
           <t>segment_470.npy</t>
         </is>
       </c>
+      <c r="AB172" t="inlineStr">
+        <is>
+          <t>segment_170.npy</t>
+        </is>
+      </c>
+      <c r="AC172" t="inlineStr">
+        <is>
+          <t>segment_470.npy</t>
+        </is>
+      </c>
+      <c r="AD172" t="inlineStr">
+        <is>
+          <t>segment_170.npy</t>
+        </is>
+      </c>
+      <c r="AE172" t="inlineStr">
+        <is>
+          <t>segment_470.npy</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -22069,6 +25509,26 @@
           <t>segment_471.npy</t>
         </is>
       </c>
+      <c r="AB173" t="inlineStr">
+        <is>
+          <t>segment_171.npy</t>
+        </is>
+      </c>
+      <c r="AC173" t="inlineStr">
+        <is>
+          <t>segment_471.npy</t>
+        </is>
+      </c>
+      <c r="AD173" t="inlineStr">
+        <is>
+          <t>segment_171.npy</t>
+        </is>
+      </c>
+      <c r="AE173" t="inlineStr">
+        <is>
+          <t>segment_471.npy</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -22194,6 +25654,26 @@
           <t>segment_472.npy</t>
         </is>
       </c>
+      <c r="AB174" t="inlineStr">
+        <is>
+          <t>segment_172.npy</t>
+        </is>
+      </c>
+      <c r="AC174" t="inlineStr">
+        <is>
+          <t>segment_472.npy</t>
+        </is>
+      </c>
+      <c r="AD174" t="inlineStr">
+        <is>
+          <t>segment_172.npy</t>
+        </is>
+      </c>
+      <c r="AE174" t="inlineStr">
+        <is>
+          <t>segment_472.npy</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -22319,6 +25799,26 @@
           <t>segment_473.npy</t>
         </is>
       </c>
+      <c r="AB175" t="inlineStr">
+        <is>
+          <t>segment_173.npy</t>
+        </is>
+      </c>
+      <c r="AC175" t="inlineStr">
+        <is>
+          <t>segment_473.npy</t>
+        </is>
+      </c>
+      <c r="AD175" t="inlineStr">
+        <is>
+          <t>segment_173.npy</t>
+        </is>
+      </c>
+      <c r="AE175" t="inlineStr">
+        <is>
+          <t>segment_473.npy</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -22444,6 +25944,26 @@
           <t>segment_474.npy</t>
         </is>
       </c>
+      <c r="AB176" t="inlineStr">
+        <is>
+          <t>segment_174.npy</t>
+        </is>
+      </c>
+      <c r="AC176" t="inlineStr">
+        <is>
+          <t>segment_474.npy</t>
+        </is>
+      </c>
+      <c r="AD176" t="inlineStr">
+        <is>
+          <t>segment_174.npy</t>
+        </is>
+      </c>
+      <c r="AE176" t="inlineStr">
+        <is>
+          <t>segment_474.npy</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -22569,6 +26089,26 @@
           <t>segment_475.npy</t>
         </is>
       </c>
+      <c r="AB177" t="inlineStr">
+        <is>
+          <t>segment_175.npy</t>
+        </is>
+      </c>
+      <c r="AC177" t="inlineStr">
+        <is>
+          <t>segment_475.npy</t>
+        </is>
+      </c>
+      <c r="AD177" t="inlineStr">
+        <is>
+          <t>segment_175.npy</t>
+        </is>
+      </c>
+      <c r="AE177" t="inlineStr">
+        <is>
+          <t>segment_475.npy</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -22694,6 +26234,26 @@
           <t>segment_476.npy</t>
         </is>
       </c>
+      <c r="AB178" t="inlineStr">
+        <is>
+          <t>segment_176.npy</t>
+        </is>
+      </c>
+      <c r="AC178" t="inlineStr">
+        <is>
+          <t>segment_476.npy</t>
+        </is>
+      </c>
+      <c r="AD178" t="inlineStr">
+        <is>
+          <t>segment_176.npy</t>
+        </is>
+      </c>
+      <c r="AE178" t="inlineStr">
+        <is>
+          <t>segment_476.npy</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -22819,6 +26379,26 @@
           <t>segment_477.npy</t>
         </is>
       </c>
+      <c r="AB179" t="inlineStr">
+        <is>
+          <t>segment_177.npy</t>
+        </is>
+      </c>
+      <c r="AC179" t="inlineStr">
+        <is>
+          <t>segment_477.npy</t>
+        </is>
+      </c>
+      <c r="AD179" t="inlineStr">
+        <is>
+          <t>segment_177.npy</t>
+        </is>
+      </c>
+      <c r="AE179" t="inlineStr">
+        <is>
+          <t>segment_477.npy</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -22944,6 +26524,26 @@
           <t>segment_478.npy</t>
         </is>
       </c>
+      <c r="AB180" t="inlineStr">
+        <is>
+          <t>segment_178.npy</t>
+        </is>
+      </c>
+      <c r="AC180" t="inlineStr">
+        <is>
+          <t>segment_478.npy</t>
+        </is>
+      </c>
+      <c r="AD180" t="inlineStr">
+        <is>
+          <t>segment_178.npy</t>
+        </is>
+      </c>
+      <c r="AE180" t="inlineStr">
+        <is>
+          <t>segment_478.npy</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -23069,6 +26669,26 @@
           <t>segment_479.npy</t>
         </is>
       </c>
+      <c r="AB181" t="inlineStr">
+        <is>
+          <t>segment_179.npy</t>
+        </is>
+      </c>
+      <c r="AC181" t="inlineStr">
+        <is>
+          <t>segment_479.npy</t>
+        </is>
+      </c>
+      <c r="AD181" t="inlineStr">
+        <is>
+          <t>segment_179.npy</t>
+        </is>
+      </c>
+      <c r="AE181" t="inlineStr">
+        <is>
+          <t>segment_479.npy</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -23194,6 +26814,26 @@
           <t>segment_480.npy</t>
         </is>
       </c>
+      <c r="AB182" t="inlineStr">
+        <is>
+          <t>segment_180.npy</t>
+        </is>
+      </c>
+      <c r="AC182" t="inlineStr">
+        <is>
+          <t>segment_480.npy</t>
+        </is>
+      </c>
+      <c r="AD182" t="inlineStr">
+        <is>
+          <t>segment_180.npy</t>
+        </is>
+      </c>
+      <c r="AE182" t="inlineStr">
+        <is>
+          <t>segment_480.npy</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -23319,6 +26959,26 @@
           <t>segment_481.npy</t>
         </is>
       </c>
+      <c r="AB183" t="inlineStr">
+        <is>
+          <t>segment_181.npy</t>
+        </is>
+      </c>
+      <c r="AC183" t="inlineStr">
+        <is>
+          <t>segment_481.npy</t>
+        </is>
+      </c>
+      <c r="AD183" t="inlineStr">
+        <is>
+          <t>segment_181.npy</t>
+        </is>
+      </c>
+      <c r="AE183" t="inlineStr">
+        <is>
+          <t>segment_481.npy</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -23444,6 +27104,26 @@
           <t>segment_482.npy</t>
         </is>
       </c>
+      <c r="AB184" t="inlineStr">
+        <is>
+          <t>segment_182.npy</t>
+        </is>
+      </c>
+      <c r="AC184" t="inlineStr">
+        <is>
+          <t>segment_482.npy</t>
+        </is>
+      </c>
+      <c r="AD184" t="inlineStr">
+        <is>
+          <t>segment_182.npy</t>
+        </is>
+      </c>
+      <c r="AE184" t="inlineStr">
+        <is>
+          <t>segment_482.npy</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -23569,6 +27249,26 @@
           <t>segment_483.npy</t>
         </is>
       </c>
+      <c r="AB185" t="inlineStr">
+        <is>
+          <t>segment_183.npy</t>
+        </is>
+      </c>
+      <c r="AC185" t="inlineStr">
+        <is>
+          <t>segment_483.npy</t>
+        </is>
+      </c>
+      <c r="AD185" t="inlineStr">
+        <is>
+          <t>segment_183.npy</t>
+        </is>
+      </c>
+      <c r="AE185" t="inlineStr">
+        <is>
+          <t>segment_483.npy</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -23694,6 +27394,26 @@
           <t>segment_484.npy</t>
         </is>
       </c>
+      <c r="AB186" t="inlineStr">
+        <is>
+          <t>segment_184.npy</t>
+        </is>
+      </c>
+      <c r="AC186" t="inlineStr">
+        <is>
+          <t>segment_484.npy</t>
+        </is>
+      </c>
+      <c r="AD186" t="inlineStr">
+        <is>
+          <t>segment_184.npy</t>
+        </is>
+      </c>
+      <c r="AE186" t="inlineStr">
+        <is>
+          <t>segment_484.npy</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -23819,6 +27539,26 @@
           <t>segment_485.npy</t>
         </is>
       </c>
+      <c r="AB187" t="inlineStr">
+        <is>
+          <t>segment_185.npy</t>
+        </is>
+      </c>
+      <c r="AC187" t="inlineStr">
+        <is>
+          <t>segment_485.npy</t>
+        </is>
+      </c>
+      <c r="AD187" t="inlineStr">
+        <is>
+          <t>segment_185.npy</t>
+        </is>
+      </c>
+      <c r="AE187" t="inlineStr">
+        <is>
+          <t>segment_485.npy</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -23944,6 +27684,26 @@
           <t>segment_486.npy</t>
         </is>
       </c>
+      <c r="AB188" t="inlineStr">
+        <is>
+          <t>segment_186.npy</t>
+        </is>
+      </c>
+      <c r="AC188" t="inlineStr">
+        <is>
+          <t>segment_486.npy</t>
+        </is>
+      </c>
+      <c r="AD188" t="inlineStr">
+        <is>
+          <t>segment_186.npy</t>
+        </is>
+      </c>
+      <c r="AE188" t="inlineStr">
+        <is>
+          <t>segment_486.npy</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -24069,6 +27829,26 @@
           <t>segment_487.npy</t>
         </is>
       </c>
+      <c r="AB189" t="inlineStr">
+        <is>
+          <t>segment_187.npy</t>
+        </is>
+      </c>
+      <c r="AC189" t="inlineStr">
+        <is>
+          <t>segment_487.npy</t>
+        </is>
+      </c>
+      <c r="AD189" t="inlineStr">
+        <is>
+          <t>segment_187.npy</t>
+        </is>
+      </c>
+      <c r="AE189" t="inlineStr">
+        <is>
+          <t>segment_487.npy</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -24194,6 +27974,26 @@
           <t>segment_488.npy</t>
         </is>
       </c>
+      <c r="AB190" t="inlineStr">
+        <is>
+          <t>segment_188.npy</t>
+        </is>
+      </c>
+      <c r="AC190" t="inlineStr">
+        <is>
+          <t>segment_488.npy</t>
+        </is>
+      </c>
+      <c r="AD190" t="inlineStr">
+        <is>
+          <t>segment_188.npy</t>
+        </is>
+      </c>
+      <c r="AE190" t="inlineStr">
+        <is>
+          <t>segment_488.npy</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -24319,6 +28119,26 @@
           <t>segment_489.npy</t>
         </is>
       </c>
+      <c r="AB191" t="inlineStr">
+        <is>
+          <t>segment_189.npy</t>
+        </is>
+      </c>
+      <c r="AC191" t="inlineStr">
+        <is>
+          <t>segment_489.npy</t>
+        </is>
+      </c>
+      <c r="AD191" t="inlineStr">
+        <is>
+          <t>segment_189.npy</t>
+        </is>
+      </c>
+      <c r="AE191" t="inlineStr">
+        <is>
+          <t>segment_489.npy</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -24444,6 +28264,26 @@
           <t>segment_490.npy</t>
         </is>
       </c>
+      <c r="AB192" t="inlineStr">
+        <is>
+          <t>segment_190.npy</t>
+        </is>
+      </c>
+      <c r="AC192" t="inlineStr">
+        <is>
+          <t>segment_490.npy</t>
+        </is>
+      </c>
+      <c r="AD192" t="inlineStr">
+        <is>
+          <t>segment_190.npy</t>
+        </is>
+      </c>
+      <c r="AE192" t="inlineStr">
+        <is>
+          <t>segment_490.npy</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -24569,6 +28409,26 @@
           <t>segment_491.npy</t>
         </is>
       </c>
+      <c r="AB193" t="inlineStr">
+        <is>
+          <t>segment_191.npy</t>
+        </is>
+      </c>
+      <c r="AC193" t="inlineStr">
+        <is>
+          <t>segment_491.npy</t>
+        </is>
+      </c>
+      <c r="AD193" t="inlineStr">
+        <is>
+          <t>segment_191.npy</t>
+        </is>
+      </c>
+      <c r="AE193" t="inlineStr">
+        <is>
+          <t>segment_491.npy</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -24694,6 +28554,26 @@
           <t>segment_492.npy</t>
         </is>
       </c>
+      <c r="AB194" t="inlineStr">
+        <is>
+          <t>segment_192.npy</t>
+        </is>
+      </c>
+      <c r="AC194" t="inlineStr">
+        <is>
+          <t>segment_492.npy</t>
+        </is>
+      </c>
+      <c r="AD194" t="inlineStr">
+        <is>
+          <t>segment_192.npy</t>
+        </is>
+      </c>
+      <c r="AE194" t="inlineStr">
+        <is>
+          <t>segment_492.npy</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -24819,6 +28699,26 @@
           <t>segment_493.npy</t>
         </is>
       </c>
+      <c r="AB195" t="inlineStr">
+        <is>
+          <t>segment_193.npy</t>
+        </is>
+      </c>
+      <c r="AC195" t="inlineStr">
+        <is>
+          <t>segment_493.npy</t>
+        </is>
+      </c>
+      <c r="AD195" t="inlineStr">
+        <is>
+          <t>segment_193.npy</t>
+        </is>
+      </c>
+      <c r="AE195" t="inlineStr">
+        <is>
+          <t>segment_493.npy</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -24944,6 +28844,26 @@
           <t>segment_494.npy</t>
         </is>
       </c>
+      <c r="AB196" t="inlineStr">
+        <is>
+          <t>segment_194.npy</t>
+        </is>
+      </c>
+      <c r="AC196" t="inlineStr">
+        <is>
+          <t>segment_494.npy</t>
+        </is>
+      </c>
+      <c r="AD196" t="inlineStr">
+        <is>
+          <t>segment_194.npy</t>
+        </is>
+      </c>
+      <c r="AE196" t="inlineStr">
+        <is>
+          <t>segment_494.npy</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -25069,6 +28989,26 @@
           <t>segment_495.npy</t>
         </is>
       </c>
+      <c r="AB197" t="inlineStr">
+        <is>
+          <t>segment_195.npy</t>
+        </is>
+      </c>
+      <c r="AC197" t="inlineStr">
+        <is>
+          <t>segment_495.npy</t>
+        </is>
+      </c>
+      <c r="AD197" t="inlineStr">
+        <is>
+          <t>segment_195.npy</t>
+        </is>
+      </c>
+      <c r="AE197" t="inlineStr">
+        <is>
+          <t>segment_495.npy</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -25194,6 +29134,26 @@
           <t>segment_496.npy</t>
         </is>
       </c>
+      <c r="AB198" t="inlineStr">
+        <is>
+          <t>segment_196.npy</t>
+        </is>
+      </c>
+      <c r="AC198" t="inlineStr">
+        <is>
+          <t>segment_496.npy</t>
+        </is>
+      </c>
+      <c r="AD198" t="inlineStr">
+        <is>
+          <t>segment_196.npy</t>
+        </is>
+      </c>
+      <c r="AE198" t="inlineStr">
+        <is>
+          <t>segment_496.npy</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -25319,6 +29279,26 @@
           <t>segment_497.npy</t>
         </is>
       </c>
+      <c r="AB199" t="inlineStr">
+        <is>
+          <t>segment_197.npy</t>
+        </is>
+      </c>
+      <c r="AC199" t="inlineStr">
+        <is>
+          <t>segment_497.npy</t>
+        </is>
+      </c>
+      <c r="AD199" t="inlineStr">
+        <is>
+          <t>segment_197.npy</t>
+        </is>
+      </c>
+      <c r="AE199" t="inlineStr">
+        <is>
+          <t>segment_497.npy</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -25444,6 +29424,26 @@
           <t>segment_498.npy</t>
         </is>
       </c>
+      <c r="AB200" t="inlineStr">
+        <is>
+          <t>segment_198.npy</t>
+        </is>
+      </c>
+      <c r="AC200" t="inlineStr">
+        <is>
+          <t>segment_498.npy</t>
+        </is>
+      </c>
+      <c r="AD200" t="inlineStr">
+        <is>
+          <t>segment_198.npy</t>
+        </is>
+      </c>
+      <c r="AE200" t="inlineStr">
+        <is>
+          <t>segment_498.npy</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -25569,6 +29569,26 @@
           <t>segment_499.npy</t>
         </is>
       </c>
+      <c r="AB201" t="inlineStr">
+        <is>
+          <t>segment_199.npy</t>
+        </is>
+      </c>
+      <c r="AC201" t="inlineStr">
+        <is>
+          <t>segment_499.npy</t>
+        </is>
+      </c>
+      <c r="AD201" t="inlineStr">
+        <is>
+          <t>segment_199.npy</t>
+        </is>
+      </c>
+      <c r="AE201" t="inlineStr">
+        <is>
+          <t>segment_499.npy</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -25694,6 +29714,26 @@
           <t>segment_500.npy</t>
         </is>
       </c>
+      <c r="AB202" t="inlineStr">
+        <is>
+          <t>segment_200.npy</t>
+        </is>
+      </c>
+      <c r="AC202" t="inlineStr">
+        <is>
+          <t>segment_500.npy</t>
+        </is>
+      </c>
+      <c r="AD202" t="inlineStr">
+        <is>
+          <t>segment_200.npy</t>
+        </is>
+      </c>
+      <c r="AE202" t="inlineStr">
+        <is>
+          <t>segment_500.npy</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -25819,6 +29859,26 @@
           <t>segment_501.npy</t>
         </is>
       </c>
+      <c r="AB203" t="inlineStr">
+        <is>
+          <t>segment_201.npy</t>
+        </is>
+      </c>
+      <c r="AC203" t="inlineStr">
+        <is>
+          <t>segment_501.npy</t>
+        </is>
+      </c>
+      <c r="AD203" t="inlineStr">
+        <is>
+          <t>segment_201.npy</t>
+        </is>
+      </c>
+      <c r="AE203" t="inlineStr">
+        <is>
+          <t>segment_501.npy</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -25944,6 +30004,26 @@
           <t>segment_502.npy</t>
         </is>
       </c>
+      <c r="AB204" t="inlineStr">
+        <is>
+          <t>segment_202.npy</t>
+        </is>
+      </c>
+      <c r="AC204" t="inlineStr">
+        <is>
+          <t>segment_502.npy</t>
+        </is>
+      </c>
+      <c r="AD204" t="inlineStr">
+        <is>
+          <t>segment_202.npy</t>
+        </is>
+      </c>
+      <c r="AE204" t="inlineStr">
+        <is>
+          <t>segment_502.npy</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -26069,6 +30149,26 @@
           <t>segment_503.npy</t>
         </is>
       </c>
+      <c r="AB205" t="inlineStr">
+        <is>
+          <t>segment_203.npy</t>
+        </is>
+      </c>
+      <c r="AC205" t="inlineStr">
+        <is>
+          <t>segment_503.npy</t>
+        </is>
+      </c>
+      <c r="AD205" t="inlineStr">
+        <is>
+          <t>segment_203.npy</t>
+        </is>
+      </c>
+      <c r="AE205" t="inlineStr">
+        <is>
+          <t>segment_503.npy</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -26194,6 +30294,26 @@
           <t>segment_504.npy</t>
         </is>
       </c>
+      <c r="AB206" t="inlineStr">
+        <is>
+          <t>segment_204.npy</t>
+        </is>
+      </c>
+      <c r="AC206" t="inlineStr">
+        <is>
+          <t>segment_504.npy</t>
+        </is>
+      </c>
+      <c r="AD206" t="inlineStr">
+        <is>
+          <t>segment_204.npy</t>
+        </is>
+      </c>
+      <c r="AE206" t="inlineStr">
+        <is>
+          <t>segment_504.npy</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -26319,6 +30439,26 @@
           <t>segment_505.npy</t>
         </is>
       </c>
+      <c r="AB207" t="inlineStr">
+        <is>
+          <t>segment_205.npy</t>
+        </is>
+      </c>
+      <c r="AC207" t="inlineStr">
+        <is>
+          <t>segment_505.npy</t>
+        </is>
+      </c>
+      <c r="AD207" t="inlineStr">
+        <is>
+          <t>segment_205.npy</t>
+        </is>
+      </c>
+      <c r="AE207" t="inlineStr">
+        <is>
+          <t>segment_505.npy</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -26444,6 +30584,26 @@
           <t>segment_506.npy</t>
         </is>
       </c>
+      <c r="AB208" t="inlineStr">
+        <is>
+          <t>segment_206.npy</t>
+        </is>
+      </c>
+      <c r="AC208" t="inlineStr">
+        <is>
+          <t>segment_506.npy</t>
+        </is>
+      </c>
+      <c r="AD208" t="inlineStr">
+        <is>
+          <t>segment_206.npy</t>
+        </is>
+      </c>
+      <c r="AE208" t="inlineStr">
+        <is>
+          <t>segment_506.npy</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -26569,6 +30729,26 @@
           <t>segment_507.npy</t>
         </is>
       </c>
+      <c r="AB209" t="inlineStr">
+        <is>
+          <t>segment_207.npy</t>
+        </is>
+      </c>
+      <c r="AC209" t="inlineStr">
+        <is>
+          <t>segment_507.npy</t>
+        </is>
+      </c>
+      <c r="AD209" t="inlineStr">
+        <is>
+          <t>segment_207.npy</t>
+        </is>
+      </c>
+      <c r="AE209" t="inlineStr">
+        <is>
+          <t>segment_507.npy</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -26694,6 +30874,26 @@
           <t>segment_508.npy</t>
         </is>
       </c>
+      <c r="AB210" t="inlineStr">
+        <is>
+          <t>segment_208.npy</t>
+        </is>
+      </c>
+      <c r="AC210" t="inlineStr">
+        <is>
+          <t>segment_508.npy</t>
+        </is>
+      </c>
+      <c r="AD210" t="inlineStr">
+        <is>
+          <t>segment_208.npy</t>
+        </is>
+      </c>
+      <c r="AE210" t="inlineStr">
+        <is>
+          <t>segment_508.npy</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -26819,6 +31019,26 @@
           <t>segment_509.npy</t>
         </is>
       </c>
+      <c r="AB211" t="inlineStr">
+        <is>
+          <t>segment_209.npy</t>
+        </is>
+      </c>
+      <c r="AC211" t="inlineStr">
+        <is>
+          <t>segment_509.npy</t>
+        </is>
+      </c>
+      <c r="AD211" t="inlineStr">
+        <is>
+          <t>segment_209.npy</t>
+        </is>
+      </c>
+      <c r="AE211" t="inlineStr">
+        <is>
+          <t>segment_509.npy</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -26944,6 +31164,26 @@
           <t>segment_510.npy</t>
         </is>
       </c>
+      <c r="AB212" t="inlineStr">
+        <is>
+          <t>segment_210.npy</t>
+        </is>
+      </c>
+      <c r="AC212" t="inlineStr">
+        <is>
+          <t>segment_510.npy</t>
+        </is>
+      </c>
+      <c r="AD212" t="inlineStr">
+        <is>
+          <t>segment_210.npy</t>
+        </is>
+      </c>
+      <c r="AE212" t="inlineStr">
+        <is>
+          <t>segment_510.npy</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -27069,6 +31309,26 @@
           <t>segment_511.npy</t>
         </is>
       </c>
+      <c r="AB213" t="inlineStr">
+        <is>
+          <t>segment_211.npy</t>
+        </is>
+      </c>
+      <c r="AC213" t="inlineStr">
+        <is>
+          <t>segment_511.npy</t>
+        </is>
+      </c>
+      <c r="AD213" t="inlineStr">
+        <is>
+          <t>segment_211.npy</t>
+        </is>
+      </c>
+      <c r="AE213" t="inlineStr">
+        <is>
+          <t>segment_511.npy</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -27194,6 +31454,26 @@
           <t>segment_512.npy</t>
         </is>
       </c>
+      <c r="AB214" t="inlineStr">
+        <is>
+          <t>segment_212.npy</t>
+        </is>
+      </c>
+      <c r="AC214" t="inlineStr">
+        <is>
+          <t>segment_512.npy</t>
+        </is>
+      </c>
+      <c r="AD214" t="inlineStr">
+        <is>
+          <t>segment_212.npy</t>
+        </is>
+      </c>
+      <c r="AE214" t="inlineStr">
+        <is>
+          <t>segment_512.npy</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -27319,6 +31599,26 @@
           <t>segment_513.npy</t>
         </is>
       </c>
+      <c r="AB215" t="inlineStr">
+        <is>
+          <t>segment_213.npy</t>
+        </is>
+      </c>
+      <c r="AC215" t="inlineStr">
+        <is>
+          <t>segment_513.npy</t>
+        </is>
+      </c>
+      <c r="AD215" t="inlineStr">
+        <is>
+          <t>segment_213.npy</t>
+        </is>
+      </c>
+      <c r="AE215" t="inlineStr">
+        <is>
+          <t>segment_513.npy</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -27444,6 +31744,26 @@
           <t>segment_514.npy</t>
         </is>
       </c>
+      <c r="AB216" t="inlineStr">
+        <is>
+          <t>segment_214.npy</t>
+        </is>
+      </c>
+      <c r="AC216" t="inlineStr">
+        <is>
+          <t>segment_514.npy</t>
+        </is>
+      </c>
+      <c r="AD216" t="inlineStr">
+        <is>
+          <t>segment_214.npy</t>
+        </is>
+      </c>
+      <c r="AE216" t="inlineStr">
+        <is>
+          <t>segment_514.npy</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -27569,6 +31889,26 @@
           <t>segment_515.npy</t>
         </is>
       </c>
+      <c r="AB217" t="inlineStr">
+        <is>
+          <t>segment_215.npy</t>
+        </is>
+      </c>
+      <c r="AC217" t="inlineStr">
+        <is>
+          <t>segment_515.npy</t>
+        </is>
+      </c>
+      <c r="AD217" t="inlineStr">
+        <is>
+          <t>segment_215.npy</t>
+        </is>
+      </c>
+      <c r="AE217" t="inlineStr">
+        <is>
+          <t>segment_515.npy</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -27694,6 +32034,26 @@
           <t>segment_516.npy</t>
         </is>
       </c>
+      <c r="AB218" t="inlineStr">
+        <is>
+          <t>segment_216.npy</t>
+        </is>
+      </c>
+      <c r="AC218" t="inlineStr">
+        <is>
+          <t>segment_516.npy</t>
+        </is>
+      </c>
+      <c r="AD218" t="inlineStr">
+        <is>
+          <t>segment_216.npy</t>
+        </is>
+      </c>
+      <c r="AE218" t="inlineStr">
+        <is>
+          <t>segment_516.npy</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -27819,6 +32179,26 @@
           <t>segment_517.npy</t>
         </is>
       </c>
+      <c r="AB219" t="inlineStr">
+        <is>
+          <t>segment_217.npy</t>
+        </is>
+      </c>
+      <c r="AC219" t="inlineStr">
+        <is>
+          <t>segment_517.npy</t>
+        </is>
+      </c>
+      <c r="AD219" t="inlineStr">
+        <is>
+          <t>segment_217.npy</t>
+        </is>
+      </c>
+      <c r="AE219" t="inlineStr">
+        <is>
+          <t>segment_517.npy</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -27944,6 +32324,26 @@
           <t>segment_518.npy</t>
         </is>
       </c>
+      <c r="AB220" t="inlineStr">
+        <is>
+          <t>segment_218.npy</t>
+        </is>
+      </c>
+      <c r="AC220" t="inlineStr">
+        <is>
+          <t>segment_518.npy</t>
+        </is>
+      </c>
+      <c r="AD220" t="inlineStr">
+        <is>
+          <t>segment_218.npy</t>
+        </is>
+      </c>
+      <c r="AE220" t="inlineStr">
+        <is>
+          <t>segment_518.npy</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -28069,6 +32469,26 @@
           <t>segment_519.npy</t>
         </is>
       </c>
+      <c r="AB221" t="inlineStr">
+        <is>
+          <t>segment_219.npy</t>
+        </is>
+      </c>
+      <c r="AC221" t="inlineStr">
+        <is>
+          <t>segment_519.npy</t>
+        </is>
+      </c>
+      <c r="AD221" t="inlineStr">
+        <is>
+          <t>segment_219.npy</t>
+        </is>
+      </c>
+      <c r="AE221" t="inlineStr">
+        <is>
+          <t>segment_519.npy</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -28194,6 +32614,26 @@
           <t>segment_520.npy</t>
         </is>
       </c>
+      <c r="AB222" t="inlineStr">
+        <is>
+          <t>segment_220.npy</t>
+        </is>
+      </c>
+      <c r="AC222" t="inlineStr">
+        <is>
+          <t>segment_520.npy</t>
+        </is>
+      </c>
+      <c r="AD222" t="inlineStr">
+        <is>
+          <t>segment_220.npy</t>
+        </is>
+      </c>
+      <c r="AE222" t="inlineStr">
+        <is>
+          <t>segment_520.npy</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -28319,6 +32759,26 @@
           <t>segment_521.npy</t>
         </is>
       </c>
+      <c r="AB223" t="inlineStr">
+        <is>
+          <t>segment_221.npy</t>
+        </is>
+      </c>
+      <c r="AC223" t="inlineStr">
+        <is>
+          <t>segment_521.npy</t>
+        </is>
+      </c>
+      <c r="AD223" t="inlineStr">
+        <is>
+          <t>segment_221.npy</t>
+        </is>
+      </c>
+      <c r="AE223" t="inlineStr">
+        <is>
+          <t>segment_521.npy</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -28444,6 +32904,26 @@
           <t>segment_522.npy</t>
         </is>
       </c>
+      <c r="AB224" t="inlineStr">
+        <is>
+          <t>segment_222.npy</t>
+        </is>
+      </c>
+      <c r="AC224" t="inlineStr">
+        <is>
+          <t>segment_522.npy</t>
+        </is>
+      </c>
+      <c r="AD224" t="inlineStr">
+        <is>
+          <t>segment_222.npy</t>
+        </is>
+      </c>
+      <c r="AE224" t="inlineStr">
+        <is>
+          <t>segment_522.npy</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -28569,6 +33049,26 @@
           <t>segment_523.npy</t>
         </is>
       </c>
+      <c r="AB225" t="inlineStr">
+        <is>
+          <t>segment_223.npy</t>
+        </is>
+      </c>
+      <c r="AC225" t="inlineStr">
+        <is>
+          <t>segment_523.npy</t>
+        </is>
+      </c>
+      <c r="AD225" t="inlineStr">
+        <is>
+          <t>segment_223.npy</t>
+        </is>
+      </c>
+      <c r="AE225" t="inlineStr">
+        <is>
+          <t>segment_523.npy</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -28694,6 +33194,26 @@
           <t>segment_524.npy</t>
         </is>
       </c>
+      <c r="AB226" t="inlineStr">
+        <is>
+          <t>segment_224.npy</t>
+        </is>
+      </c>
+      <c r="AC226" t="inlineStr">
+        <is>
+          <t>segment_524.npy</t>
+        </is>
+      </c>
+      <c r="AD226" t="inlineStr">
+        <is>
+          <t>segment_224.npy</t>
+        </is>
+      </c>
+      <c r="AE226" t="inlineStr">
+        <is>
+          <t>segment_524.npy</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -28819,6 +33339,26 @@
           <t>segment_525.npy</t>
         </is>
       </c>
+      <c r="AB227" t="inlineStr">
+        <is>
+          <t>segment_225.npy</t>
+        </is>
+      </c>
+      <c r="AC227" t="inlineStr">
+        <is>
+          <t>segment_525.npy</t>
+        </is>
+      </c>
+      <c r="AD227" t="inlineStr">
+        <is>
+          <t>segment_225.npy</t>
+        </is>
+      </c>
+      <c r="AE227" t="inlineStr">
+        <is>
+          <t>segment_525.npy</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -28944,6 +33484,26 @@
           <t>segment_526.npy</t>
         </is>
       </c>
+      <c r="AB228" t="inlineStr">
+        <is>
+          <t>segment_226.npy</t>
+        </is>
+      </c>
+      <c r="AC228" t="inlineStr">
+        <is>
+          <t>segment_526.npy</t>
+        </is>
+      </c>
+      <c r="AD228" t="inlineStr">
+        <is>
+          <t>segment_226.npy</t>
+        </is>
+      </c>
+      <c r="AE228" t="inlineStr">
+        <is>
+          <t>segment_526.npy</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -29069,6 +33629,26 @@
           <t>segment_527.npy</t>
         </is>
       </c>
+      <c r="AB229" t="inlineStr">
+        <is>
+          <t>segment_227.npy</t>
+        </is>
+      </c>
+      <c r="AC229" t="inlineStr">
+        <is>
+          <t>segment_527.npy</t>
+        </is>
+      </c>
+      <c r="AD229" t="inlineStr">
+        <is>
+          <t>segment_227.npy</t>
+        </is>
+      </c>
+      <c r="AE229" t="inlineStr">
+        <is>
+          <t>segment_527.npy</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -29194,6 +33774,26 @@
           <t>segment_528.npy</t>
         </is>
       </c>
+      <c r="AB230" t="inlineStr">
+        <is>
+          <t>segment_228.npy</t>
+        </is>
+      </c>
+      <c r="AC230" t="inlineStr">
+        <is>
+          <t>segment_528.npy</t>
+        </is>
+      </c>
+      <c r="AD230" t="inlineStr">
+        <is>
+          <t>segment_228.npy</t>
+        </is>
+      </c>
+      <c r="AE230" t="inlineStr">
+        <is>
+          <t>segment_528.npy</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -29319,6 +33919,26 @@
           <t>segment_529.npy</t>
         </is>
       </c>
+      <c r="AB231" t="inlineStr">
+        <is>
+          <t>segment_229.npy</t>
+        </is>
+      </c>
+      <c r="AC231" t="inlineStr">
+        <is>
+          <t>segment_529.npy</t>
+        </is>
+      </c>
+      <c r="AD231" t="inlineStr">
+        <is>
+          <t>segment_229.npy</t>
+        </is>
+      </c>
+      <c r="AE231" t="inlineStr">
+        <is>
+          <t>segment_529.npy</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -29444,6 +34064,26 @@
           <t>segment_530.npy</t>
         </is>
       </c>
+      <c r="AB232" t="inlineStr">
+        <is>
+          <t>segment_230.npy</t>
+        </is>
+      </c>
+      <c r="AC232" t="inlineStr">
+        <is>
+          <t>segment_530.npy</t>
+        </is>
+      </c>
+      <c r="AD232" t="inlineStr">
+        <is>
+          <t>segment_230.npy</t>
+        </is>
+      </c>
+      <c r="AE232" t="inlineStr">
+        <is>
+          <t>segment_530.npy</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -29569,6 +34209,26 @@
           <t>segment_531.npy</t>
         </is>
       </c>
+      <c r="AB233" t="inlineStr">
+        <is>
+          <t>segment_231.npy</t>
+        </is>
+      </c>
+      <c r="AC233" t="inlineStr">
+        <is>
+          <t>segment_531.npy</t>
+        </is>
+      </c>
+      <c r="AD233" t="inlineStr">
+        <is>
+          <t>segment_231.npy</t>
+        </is>
+      </c>
+      <c r="AE233" t="inlineStr">
+        <is>
+          <t>segment_531.npy</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -29694,6 +34354,26 @@
           <t>segment_532.npy</t>
         </is>
       </c>
+      <c r="AB234" t="inlineStr">
+        <is>
+          <t>segment_232.npy</t>
+        </is>
+      </c>
+      <c r="AC234" t="inlineStr">
+        <is>
+          <t>segment_532.npy</t>
+        </is>
+      </c>
+      <c r="AD234" t="inlineStr">
+        <is>
+          <t>segment_232.npy</t>
+        </is>
+      </c>
+      <c r="AE234" t="inlineStr">
+        <is>
+          <t>segment_532.npy</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -29819,6 +34499,26 @@
           <t>segment_533.npy</t>
         </is>
       </c>
+      <c r="AB235" t="inlineStr">
+        <is>
+          <t>segment_233.npy</t>
+        </is>
+      </c>
+      <c r="AC235" t="inlineStr">
+        <is>
+          <t>segment_533.npy</t>
+        </is>
+      </c>
+      <c r="AD235" t="inlineStr">
+        <is>
+          <t>segment_233.npy</t>
+        </is>
+      </c>
+      <c r="AE235" t="inlineStr">
+        <is>
+          <t>segment_533.npy</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -29944,6 +34644,26 @@
           <t>segment_534.npy</t>
         </is>
       </c>
+      <c r="AB236" t="inlineStr">
+        <is>
+          <t>segment_234.npy</t>
+        </is>
+      </c>
+      <c r="AC236" t="inlineStr">
+        <is>
+          <t>segment_534.npy</t>
+        </is>
+      </c>
+      <c r="AD236" t="inlineStr">
+        <is>
+          <t>segment_234.npy</t>
+        </is>
+      </c>
+      <c r="AE236" t="inlineStr">
+        <is>
+          <t>segment_534.npy</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -30069,6 +34789,26 @@
           <t>segment_535.npy</t>
         </is>
       </c>
+      <c r="AB237" t="inlineStr">
+        <is>
+          <t>segment_235.npy</t>
+        </is>
+      </c>
+      <c r="AC237" t="inlineStr">
+        <is>
+          <t>segment_535.npy</t>
+        </is>
+      </c>
+      <c r="AD237" t="inlineStr">
+        <is>
+          <t>segment_235.npy</t>
+        </is>
+      </c>
+      <c r="AE237" t="inlineStr">
+        <is>
+          <t>segment_535.npy</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -30194,6 +34934,26 @@
           <t>segment_536.npy</t>
         </is>
       </c>
+      <c r="AB238" t="inlineStr">
+        <is>
+          <t>segment_236.npy</t>
+        </is>
+      </c>
+      <c r="AC238" t="inlineStr">
+        <is>
+          <t>segment_536.npy</t>
+        </is>
+      </c>
+      <c r="AD238" t="inlineStr">
+        <is>
+          <t>segment_236.npy</t>
+        </is>
+      </c>
+      <c r="AE238" t="inlineStr">
+        <is>
+          <t>segment_536.npy</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -30319,6 +35079,26 @@
           <t>segment_537.npy</t>
         </is>
       </c>
+      <c r="AB239" t="inlineStr">
+        <is>
+          <t>segment_237.npy</t>
+        </is>
+      </c>
+      <c r="AC239" t="inlineStr">
+        <is>
+          <t>segment_537.npy</t>
+        </is>
+      </c>
+      <c r="AD239" t="inlineStr">
+        <is>
+          <t>segment_237.npy</t>
+        </is>
+      </c>
+      <c r="AE239" t="inlineStr">
+        <is>
+          <t>segment_537.npy</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -30444,6 +35224,26 @@
           <t>segment_538.npy</t>
         </is>
       </c>
+      <c r="AB240" t="inlineStr">
+        <is>
+          <t>segment_238.npy</t>
+        </is>
+      </c>
+      <c r="AC240" t="inlineStr">
+        <is>
+          <t>segment_538.npy</t>
+        </is>
+      </c>
+      <c r="AD240" t="inlineStr">
+        <is>
+          <t>segment_238.npy</t>
+        </is>
+      </c>
+      <c r="AE240" t="inlineStr">
+        <is>
+          <t>segment_538.npy</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -30569,6 +35369,26 @@
           <t>segment_539.npy</t>
         </is>
       </c>
+      <c r="AB241" t="inlineStr">
+        <is>
+          <t>segment_239.npy</t>
+        </is>
+      </c>
+      <c r="AC241" t="inlineStr">
+        <is>
+          <t>segment_539.npy</t>
+        </is>
+      </c>
+      <c r="AD241" t="inlineStr">
+        <is>
+          <t>segment_239.npy</t>
+        </is>
+      </c>
+      <c r="AE241" t="inlineStr">
+        <is>
+          <t>segment_539.npy</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -30694,6 +35514,26 @@
           <t>segment_540.npy</t>
         </is>
       </c>
+      <c r="AB242" t="inlineStr">
+        <is>
+          <t>segment_240.npy</t>
+        </is>
+      </c>
+      <c r="AC242" t="inlineStr">
+        <is>
+          <t>segment_540.npy</t>
+        </is>
+      </c>
+      <c r="AD242" t="inlineStr">
+        <is>
+          <t>segment_240.npy</t>
+        </is>
+      </c>
+      <c r="AE242" t="inlineStr">
+        <is>
+          <t>segment_540.npy</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -30819,6 +35659,26 @@
           <t>segment_541.npy</t>
         </is>
       </c>
+      <c r="AB243" t="inlineStr">
+        <is>
+          <t>segment_241.npy</t>
+        </is>
+      </c>
+      <c r="AC243" t="inlineStr">
+        <is>
+          <t>segment_541.npy</t>
+        </is>
+      </c>
+      <c r="AD243" t="inlineStr">
+        <is>
+          <t>segment_241.npy</t>
+        </is>
+      </c>
+      <c r="AE243" t="inlineStr">
+        <is>
+          <t>segment_541.npy</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -30944,6 +35804,26 @@
           <t>segment_542.npy</t>
         </is>
       </c>
+      <c r="AB244" t="inlineStr">
+        <is>
+          <t>segment_242.npy</t>
+        </is>
+      </c>
+      <c r="AC244" t="inlineStr">
+        <is>
+          <t>segment_542.npy</t>
+        </is>
+      </c>
+      <c r="AD244" t="inlineStr">
+        <is>
+          <t>segment_242.npy</t>
+        </is>
+      </c>
+      <c r="AE244" t="inlineStr">
+        <is>
+          <t>segment_542.npy</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -31069,6 +35949,26 @@
           <t>segment_543.npy</t>
         </is>
       </c>
+      <c r="AB245" t="inlineStr">
+        <is>
+          <t>segment_243.npy</t>
+        </is>
+      </c>
+      <c r="AC245" t="inlineStr">
+        <is>
+          <t>segment_543.npy</t>
+        </is>
+      </c>
+      <c r="AD245" t="inlineStr">
+        <is>
+          <t>segment_243.npy</t>
+        </is>
+      </c>
+      <c r="AE245" t="inlineStr">
+        <is>
+          <t>segment_543.npy</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -31194,6 +36094,26 @@
           <t>segment_544.npy</t>
         </is>
       </c>
+      <c r="AB246" t="inlineStr">
+        <is>
+          <t>segment_244.npy</t>
+        </is>
+      </c>
+      <c r="AC246" t="inlineStr">
+        <is>
+          <t>segment_544.npy</t>
+        </is>
+      </c>
+      <c r="AD246" t="inlineStr">
+        <is>
+          <t>segment_244.npy</t>
+        </is>
+      </c>
+      <c r="AE246" t="inlineStr">
+        <is>
+          <t>segment_544.npy</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -31319,6 +36239,26 @@
           <t>segment_545.npy</t>
         </is>
       </c>
+      <c r="AB247" t="inlineStr">
+        <is>
+          <t>segment_245.npy</t>
+        </is>
+      </c>
+      <c r="AC247" t="inlineStr">
+        <is>
+          <t>segment_545.npy</t>
+        </is>
+      </c>
+      <c r="AD247" t="inlineStr">
+        <is>
+          <t>segment_245.npy</t>
+        </is>
+      </c>
+      <c r="AE247" t="inlineStr">
+        <is>
+          <t>segment_545.npy</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -31444,6 +36384,26 @@
           <t>segment_546.npy</t>
         </is>
       </c>
+      <c r="AB248" t="inlineStr">
+        <is>
+          <t>segment_246.npy</t>
+        </is>
+      </c>
+      <c r="AC248" t="inlineStr">
+        <is>
+          <t>segment_546.npy</t>
+        </is>
+      </c>
+      <c r="AD248" t="inlineStr">
+        <is>
+          <t>segment_246.npy</t>
+        </is>
+      </c>
+      <c r="AE248" t="inlineStr">
+        <is>
+          <t>segment_546.npy</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -31569,6 +36529,26 @@
           <t>segment_547.npy</t>
         </is>
       </c>
+      <c r="AB249" t="inlineStr">
+        <is>
+          <t>segment_247.npy</t>
+        </is>
+      </c>
+      <c r="AC249" t="inlineStr">
+        <is>
+          <t>segment_547.npy</t>
+        </is>
+      </c>
+      <c r="AD249" t="inlineStr">
+        <is>
+          <t>segment_247.npy</t>
+        </is>
+      </c>
+      <c r="AE249" t="inlineStr">
+        <is>
+          <t>segment_547.npy</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -31694,6 +36674,26 @@
           <t>segment_548.npy</t>
         </is>
       </c>
+      <c r="AB250" t="inlineStr">
+        <is>
+          <t>segment_248.npy</t>
+        </is>
+      </c>
+      <c r="AC250" t="inlineStr">
+        <is>
+          <t>segment_548.npy</t>
+        </is>
+      </c>
+      <c r="AD250" t="inlineStr">
+        <is>
+          <t>segment_248.npy</t>
+        </is>
+      </c>
+      <c r="AE250" t="inlineStr">
+        <is>
+          <t>segment_548.npy</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -31819,6 +36819,26 @@
           <t>segment_549.npy</t>
         </is>
       </c>
+      <c r="AB251" t="inlineStr">
+        <is>
+          <t>segment_249.npy</t>
+        </is>
+      </c>
+      <c r="AC251" t="inlineStr">
+        <is>
+          <t>segment_549.npy</t>
+        </is>
+      </c>
+      <c r="AD251" t="inlineStr">
+        <is>
+          <t>segment_249.npy</t>
+        </is>
+      </c>
+      <c r="AE251" t="inlineStr">
+        <is>
+          <t>segment_549.npy</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -31944,6 +36964,26 @@
           <t>segment_550.npy</t>
         </is>
       </c>
+      <c r="AB252" t="inlineStr">
+        <is>
+          <t>segment_250.npy</t>
+        </is>
+      </c>
+      <c r="AC252" t="inlineStr">
+        <is>
+          <t>segment_550.npy</t>
+        </is>
+      </c>
+      <c r="AD252" t="inlineStr">
+        <is>
+          <t>segment_250.npy</t>
+        </is>
+      </c>
+      <c r="AE252" t="inlineStr">
+        <is>
+          <t>segment_550.npy</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -32069,6 +37109,26 @@
           <t>segment_551.npy</t>
         </is>
       </c>
+      <c r="AB253" t="inlineStr">
+        <is>
+          <t>segment_251.npy</t>
+        </is>
+      </c>
+      <c r="AC253" t="inlineStr">
+        <is>
+          <t>segment_551.npy</t>
+        </is>
+      </c>
+      <c r="AD253" t="inlineStr">
+        <is>
+          <t>segment_251.npy</t>
+        </is>
+      </c>
+      <c r="AE253" t="inlineStr">
+        <is>
+          <t>segment_551.npy</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -32194,6 +37254,26 @@
           <t>segment_552.npy</t>
         </is>
       </c>
+      <c r="AB254" t="inlineStr">
+        <is>
+          <t>segment_252.npy</t>
+        </is>
+      </c>
+      <c r="AC254" t="inlineStr">
+        <is>
+          <t>segment_552.npy</t>
+        </is>
+      </c>
+      <c r="AD254" t="inlineStr">
+        <is>
+          <t>segment_252.npy</t>
+        </is>
+      </c>
+      <c r="AE254" t="inlineStr">
+        <is>
+          <t>segment_552.npy</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -32319,6 +37399,26 @@
           <t>segment_553.npy</t>
         </is>
       </c>
+      <c r="AB255" t="inlineStr">
+        <is>
+          <t>segment_253.npy</t>
+        </is>
+      </c>
+      <c r="AC255" t="inlineStr">
+        <is>
+          <t>segment_553.npy</t>
+        </is>
+      </c>
+      <c r="AD255" t="inlineStr">
+        <is>
+          <t>segment_253.npy</t>
+        </is>
+      </c>
+      <c r="AE255" t="inlineStr">
+        <is>
+          <t>segment_553.npy</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -32444,6 +37544,26 @@
           <t>segment_554.npy</t>
         </is>
       </c>
+      <c r="AB256" t="inlineStr">
+        <is>
+          <t>segment_254.npy</t>
+        </is>
+      </c>
+      <c r="AC256" t="inlineStr">
+        <is>
+          <t>segment_554.npy</t>
+        </is>
+      </c>
+      <c r="AD256" t="inlineStr">
+        <is>
+          <t>segment_254.npy</t>
+        </is>
+      </c>
+      <c r="AE256" t="inlineStr">
+        <is>
+          <t>segment_554.npy</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -32569,6 +37689,26 @@
           <t>segment_555.npy</t>
         </is>
       </c>
+      <c r="AB257" t="inlineStr">
+        <is>
+          <t>segment_255.npy</t>
+        </is>
+      </c>
+      <c r="AC257" t="inlineStr">
+        <is>
+          <t>segment_555.npy</t>
+        </is>
+      </c>
+      <c r="AD257" t="inlineStr">
+        <is>
+          <t>segment_255.npy</t>
+        </is>
+      </c>
+      <c r="AE257" t="inlineStr">
+        <is>
+          <t>segment_555.npy</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -32694,6 +37834,26 @@
           <t>segment_556.npy</t>
         </is>
       </c>
+      <c r="AB258" t="inlineStr">
+        <is>
+          <t>segment_256.npy</t>
+        </is>
+      </c>
+      <c r="AC258" t="inlineStr">
+        <is>
+          <t>segment_556.npy</t>
+        </is>
+      </c>
+      <c r="AD258" t="inlineStr">
+        <is>
+          <t>segment_256.npy</t>
+        </is>
+      </c>
+      <c r="AE258" t="inlineStr">
+        <is>
+          <t>segment_556.npy</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -32819,6 +37979,26 @@
           <t>segment_557.npy</t>
         </is>
       </c>
+      <c r="AB259" t="inlineStr">
+        <is>
+          <t>segment_257.npy</t>
+        </is>
+      </c>
+      <c r="AC259" t="inlineStr">
+        <is>
+          <t>segment_557.npy</t>
+        </is>
+      </c>
+      <c r="AD259" t="inlineStr">
+        <is>
+          <t>segment_257.npy</t>
+        </is>
+      </c>
+      <c r="AE259" t="inlineStr">
+        <is>
+          <t>segment_557.npy</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -32944,6 +38124,26 @@
           <t>segment_558.npy</t>
         </is>
       </c>
+      <c r="AB260" t="inlineStr">
+        <is>
+          <t>segment_258.npy</t>
+        </is>
+      </c>
+      <c r="AC260" t="inlineStr">
+        <is>
+          <t>segment_558.npy</t>
+        </is>
+      </c>
+      <c r="AD260" t="inlineStr">
+        <is>
+          <t>segment_258.npy</t>
+        </is>
+      </c>
+      <c r="AE260" t="inlineStr">
+        <is>
+          <t>segment_558.npy</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -33069,6 +38269,26 @@
           <t>segment_559.npy</t>
         </is>
       </c>
+      <c r="AB261" t="inlineStr">
+        <is>
+          <t>segment_259.npy</t>
+        </is>
+      </c>
+      <c r="AC261" t="inlineStr">
+        <is>
+          <t>segment_559.npy</t>
+        </is>
+      </c>
+      <c r="AD261" t="inlineStr">
+        <is>
+          <t>segment_259.npy</t>
+        </is>
+      </c>
+      <c r="AE261" t="inlineStr">
+        <is>
+          <t>segment_559.npy</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -33194,6 +38414,26 @@
           <t>segment_560.npy</t>
         </is>
       </c>
+      <c r="AB262" t="inlineStr">
+        <is>
+          <t>segment_260.npy</t>
+        </is>
+      </c>
+      <c r="AC262" t="inlineStr">
+        <is>
+          <t>segment_560.npy</t>
+        </is>
+      </c>
+      <c r="AD262" t="inlineStr">
+        <is>
+          <t>segment_260.npy</t>
+        </is>
+      </c>
+      <c r="AE262" t="inlineStr">
+        <is>
+          <t>segment_560.npy</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -33319,6 +38559,26 @@
           <t>segment_561.npy</t>
         </is>
       </c>
+      <c r="AB263" t="inlineStr">
+        <is>
+          <t>segment_261.npy</t>
+        </is>
+      </c>
+      <c r="AC263" t="inlineStr">
+        <is>
+          <t>segment_561.npy</t>
+        </is>
+      </c>
+      <c r="AD263" t="inlineStr">
+        <is>
+          <t>segment_261.npy</t>
+        </is>
+      </c>
+      <c r="AE263" t="inlineStr">
+        <is>
+          <t>segment_561.npy</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -33444,6 +38704,26 @@
           <t>segment_562.npy</t>
         </is>
       </c>
+      <c r="AB264" t="inlineStr">
+        <is>
+          <t>segment_262.npy</t>
+        </is>
+      </c>
+      <c r="AC264" t="inlineStr">
+        <is>
+          <t>segment_562.npy</t>
+        </is>
+      </c>
+      <c r="AD264" t="inlineStr">
+        <is>
+          <t>segment_262.npy</t>
+        </is>
+      </c>
+      <c r="AE264" t="inlineStr">
+        <is>
+          <t>segment_562.npy</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -33569,6 +38849,26 @@
           <t>segment_563.npy</t>
         </is>
       </c>
+      <c r="AB265" t="inlineStr">
+        <is>
+          <t>segment_263.npy</t>
+        </is>
+      </c>
+      <c r="AC265" t="inlineStr">
+        <is>
+          <t>segment_563.npy</t>
+        </is>
+      </c>
+      <c r="AD265" t="inlineStr">
+        <is>
+          <t>segment_263.npy</t>
+        </is>
+      </c>
+      <c r="AE265" t="inlineStr">
+        <is>
+          <t>segment_563.npy</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -33694,6 +38994,26 @@
           <t>segment_564.npy</t>
         </is>
       </c>
+      <c r="AB266" t="inlineStr">
+        <is>
+          <t>segment_264.npy</t>
+        </is>
+      </c>
+      <c r="AC266" t="inlineStr">
+        <is>
+          <t>segment_564.npy</t>
+        </is>
+      </c>
+      <c r="AD266" t="inlineStr">
+        <is>
+          <t>segment_264.npy</t>
+        </is>
+      </c>
+      <c r="AE266" t="inlineStr">
+        <is>
+          <t>segment_564.npy</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -33819,6 +39139,26 @@
           <t>segment_565.npy</t>
         </is>
       </c>
+      <c r="AB267" t="inlineStr">
+        <is>
+          <t>segment_265.npy</t>
+        </is>
+      </c>
+      <c r="AC267" t="inlineStr">
+        <is>
+          <t>segment_565.npy</t>
+        </is>
+      </c>
+      <c r="AD267" t="inlineStr">
+        <is>
+          <t>segment_265.npy</t>
+        </is>
+      </c>
+      <c r="AE267" t="inlineStr">
+        <is>
+          <t>segment_565.npy</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -33944,6 +39284,26 @@
           <t>segment_566.npy</t>
         </is>
       </c>
+      <c r="AB268" t="inlineStr">
+        <is>
+          <t>segment_266.npy</t>
+        </is>
+      </c>
+      <c r="AC268" t="inlineStr">
+        <is>
+          <t>segment_566.npy</t>
+        </is>
+      </c>
+      <c r="AD268" t="inlineStr">
+        <is>
+          <t>segment_266.npy</t>
+        </is>
+      </c>
+      <c r="AE268" t="inlineStr">
+        <is>
+          <t>segment_566.npy</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -34069,6 +39429,26 @@
           <t>segment_567.npy</t>
         </is>
       </c>
+      <c r="AB269" t="inlineStr">
+        <is>
+          <t>segment_267.npy</t>
+        </is>
+      </c>
+      <c r="AC269" t="inlineStr">
+        <is>
+          <t>segment_567.npy</t>
+        </is>
+      </c>
+      <c r="AD269" t="inlineStr">
+        <is>
+          <t>segment_267.npy</t>
+        </is>
+      </c>
+      <c r="AE269" t="inlineStr">
+        <is>
+          <t>segment_567.npy</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -34194,6 +39574,26 @@
           <t>segment_568.npy</t>
         </is>
       </c>
+      <c r="AB270" t="inlineStr">
+        <is>
+          <t>segment_268.npy</t>
+        </is>
+      </c>
+      <c r="AC270" t="inlineStr">
+        <is>
+          <t>segment_568.npy</t>
+        </is>
+      </c>
+      <c r="AD270" t="inlineStr">
+        <is>
+          <t>segment_268.npy</t>
+        </is>
+      </c>
+      <c r="AE270" t="inlineStr">
+        <is>
+          <t>segment_568.npy</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -34319,6 +39719,26 @@
           <t>segment_569.npy</t>
         </is>
       </c>
+      <c r="AB271" t="inlineStr">
+        <is>
+          <t>segment_269.npy</t>
+        </is>
+      </c>
+      <c r="AC271" t="inlineStr">
+        <is>
+          <t>segment_569.npy</t>
+        </is>
+      </c>
+      <c r="AD271" t="inlineStr">
+        <is>
+          <t>segment_269.npy</t>
+        </is>
+      </c>
+      <c r="AE271" t="inlineStr">
+        <is>
+          <t>segment_569.npy</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -34444,6 +39864,26 @@
           <t>segment_570.npy</t>
         </is>
       </c>
+      <c r="AB272" t="inlineStr">
+        <is>
+          <t>segment_270.npy</t>
+        </is>
+      </c>
+      <c r="AC272" t="inlineStr">
+        <is>
+          <t>segment_570.npy</t>
+        </is>
+      </c>
+      <c r="AD272" t="inlineStr">
+        <is>
+          <t>segment_270.npy</t>
+        </is>
+      </c>
+      <c r="AE272" t="inlineStr">
+        <is>
+          <t>segment_570.npy</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -34569,6 +40009,26 @@
           <t>segment_571.npy</t>
         </is>
       </c>
+      <c r="AB273" t="inlineStr">
+        <is>
+          <t>segment_271.npy</t>
+        </is>
+      </c>
+      <c r="AC273" t="inlineStr">
+        <is>
+          <t>segment_571.npy</t>
+        </is>
+      </c>
+      <c r="AD273" t="inlineStr">
+        <is>
+          <t>segment_271.npy</t>
+        </is>
+      </c>
+      <c r="AE273" t="inlineStr">
+        <is>
+          <t>segment_571.npy</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -34694,6 +40154,26 @@
           <t>segment_572.npy</t>
         </is>
       </c>
+      <c r="AB274" t="inlineStr">
+        <is>
+          <t>segment_272.npy</t>
+        </is>
+      </c>
+      <c r="AC274" t="inlineStr">
+        <is>
+          <t>segment_572.npy</t>
+        </is>
+      </c>
+      <c r="AD274" t="inlineStr">
+        <is>
+          <t>segment_272.npy</t>
+        </is>
+      </c>
+      <c r="AE274" t="inlineStr">
+        <is>
+          <t>segment_572.npy</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -34819,6 +40299,26 @@
           <t>segment_573.npy</t>
         </is>
       </c>
+      <c r="AB275" t="inlineStr">
+        <is>
+          <t>segment_273.npy</t>
+        </is>
+      </c>
+      <c r="AC275" t="inlineStr">
+        <is>
+          <t>segment_573.npy</t>
+        </is>
+      </c>
+      <c r="AD275" t="inlineStr">
+        <is>
+          <t>segment_273.npy</t>
+        </is>
+      </c>
+      <c r="AE275" t="inlineStr">
+        <is>
+          <t>segment_573.npy</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -34944,6 +40444,26 @@
           <t>segment_574.npy</t>
         </is>
       </c>
+      <c r="AB276" t="inlineStr">
+        <is>
+          <t>segment_274.npy</t>
+        </is>
+      </c>
+      <c r="AC276" t="inlineStr">
+        <is>
+          <t>segment_574.npy</t>
+        </is>
+      </c>
+      <c r="AD276" t="inlineStr">
+        <is>
+          <t>segment_274.npy</t>
+        </is>
+      </c>
+      <c r="AE276" t="inlineStr">
+        <is>
+          <t>segment_574.npy</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -35069,6 +40589,26 @@
           <t>segment_575.npy</t>
         </is>
       </c>
+      <c r="AB277" t="inlineStr">
+        <is>
+          <t>segment_275.npy</t>
+        </is>
+      </c>
+      <c r="AC277" t="inlineStr">
+        <is>
+          <t>segment_575.npy</t>
+        </is>
+      </c>
+      <c r="AD277" t="inlineStr">
+        <is>
+          <t>segment_275.npy</t>
+        </is>
+      </c>
+      <c r="AE277" t="inlineStr">
+        <is>
+          <t>segment_575.npy</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -35194,6 +40734,26 @@
           <t>segment_576.npy</t>
         </is>
       </c>
+      <c r="AB278" t="inlineStr">
+        <is>
+          <t>segment_276.npy</t>
+        </is>
+      </c>
+      <c r="AC278" t="inlineStr">
+        <is>
+          <t>segment_576.npy</t>
+        </is>
+      </c>
+      <c r="AD278" t="inlineStr">
+        <is>
+          <t>segment_276.npy</t>
+        </is>
+      </c>
+      <c r="AE278" t="inlineStr">
+        <is>
+          <t>segment_576.npy</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -35319,6 +40879,26 @@
           <t>segment_577.npy</t>
         </is>
       </c>
+      <c r="AB279" t="inlineStr">
+        <is>
+          <t>segment_277.npy</t>
+        </is>
+      </c>
+      <c r="AC279" t="inlineStr">
+        <is>
+          <t>segment_577.npy</t>
+        </is>
+      </c>
+      <c r="AD279" t="inlineStr">
+        <is>
+          <t>segment_277.npy</t>
+        </is>
+      </c>
+      <c r="AE279" t="inlineStr">
+        <is>
+          <t>segment_577.npy</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -35444,6 +41024,26 @@
           <t>segment_578.npy</t>
         </is>
       </c>
+      <c r="AB280" t="inlineStr">
+        <is>
+          <t>segment_278.npy</t>
+        </is>
+      </c>
+      <c r="AC280" t="inlineStr">
+        <is>
+          <t>segment_578.npy</t>
+        </is>
+      </c>
+      <c r="AD280" t="inlineStr">
+        <is>
+          <t>segment_278.npy</t>
+        </is>
+      </c>
+      <c r="AE280" t="inlineStr">
+        <is>
+          <t>segment_578.npy</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -35569,6 +41169,26 @@
           <t>segment_579.npy</t>
         </is>
       </c>
+      <c r="AB281" t="inlineStr">
+        <is>
+          <t>segment_279.npy</t>
+        </is>
+      </c>
+      <c r="AC281" t="inlineStr">
+        <is>
+          <t>segment_579.npy</t>
+        </is>
+      </c>
+      <c r="AD281" t="inlineStr">
+        <is>
+          <t>segment_279.npy</t>
+        </is>
+      </c>
+      <c r="AE281" t="inlineStr">
+        <is>
+          <t>segment_579.npy</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -35694,6 +41314,26 @@
           <t>segment_580.npy</t>
         </is>
       </c>
+      <c r="AB282" t="inlineStr">
+        <is>
+          <t>segment_280.npy</t>
+        </is>
+      </c>
+      <c r="AC282" t="inlineStr">
+        <is>
+          <t>segment_580.npy</t>
+        </is>
+      </c>
+      <c r="AD282" t="inlineStr">
+        <is>
+          <t>segment_280.npy</t>
+        </is>
+      </c>
+      <c r="AE282" t="inlineStr">
+        <is>
+          <t>segment_580.npy</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -35819,6 +41459,26 @@
           <t>segment_581.npy</t>
         </is>
       </c>
+      <c r="AB283" t="inlineStr">
+        <is>
+          <t>segment_281.npy</t>
+        </is>
+      </c>
+      <c r="AC283" t="inlineStr">
+        <is>
+          <t>segment_581.npy</t>
+        </is>
+      </c>
+      <c r="AD283" t="inlineStr">
+        <is>
+          <t>segment_281.npy</t>
+        </is>
+      </c>
+      <c r="AE283" t="inlineStr">
+        <is>
+          <t>segment_581.npy</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -35944,6 +41604,26 @@
           <t>segment_582.npy</t>
         </is>
       </c>
+      <c r="AB284" t="inlineStr">
+        <is>
+          <t>segment_282.npy</t>
+        </is>
+      </c>
+      <c r="AC284" t="inlineStr">
+        <is>
+          <t>segment_582.npy</t>
+        </is>
+      </c>
+      <c r="AD284" t="inlineStr">
+        <is>
+          <t>segment_282.npy</t>
+        </is>
+      </c>
+      <c r="AE284" t="inlineStr">
+        <is>
+          <t>segment_582.npy</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -36069,6 +41749,26 @@
           <t>segment_583.npy</t>
         </is>
       </c>
+      <c r="AB285" t="inlineStr">
+        <is>
+          <t>segment_283.npy</t>
+        </is>
+      </c>
+      <c r="AC285" t="inlineStr">
+        <is>
+          <t>segment_583.npy</t>
+        </is>
+      </c>
+      <c r="AD285" t="inlineStr">
+        <is>
+          <t>segment_283.npy</t>
+        </is>
+      </c>
+      <c r="AE285" t="inlineStr">
+        <is>
+          <t>segment_583.npy</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -36194,6 +41894,26 @@
           <t>segment_584.npy</t>
         </is>
       </c>
+      <c r="AB286" t="inlineStr">
+        <is>
+          <t>segment_284.npy</t>
+        </is>
+      </c>
+      <c r="AC286" t="inlineStr">
+        <is>
+          <t>segment_584.npy</t>
+        </is>
+      </c>
+      <c r="AD286" t="inlineStr">
+        <is>
+          <t>segment_284.npy</t>
+        </is>
+      </c>
+      <c r="AE286" t="inlineStr">
+        <is>
+          <t>segment_584.npy</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -36319,6 +42039,26 @@
           <t>segment_585.npy</t>
         </is>
       </c>
+      <c r="AB287" t="inlineStr">
+        <is>
+          <t>segment_285.npy</t>
+        </is>
+      </c>
+      <c r="AC287" t="inlineStr">
+        <is>
+          <t>segment_585.npy</t>
+        </is>
+      </c>
+      <c r="AD287" t="inlineStr">
+        <is>
+          <t>segment_285.npy</t>
+        </is>
+      </c>
+      <c r="AE287" t="inlineStr">
+        <is>
+          <t>segment_585.npy</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -36444,6 +42184,26 @@
           <t>segment_586.npy</t>
         </is>
       </c>
+      <c r="AB288" t="inlineStr">
+        <is>
+          <t>segment_286.npy</t>
+        </is>
+      </c>
+      <c r="AC288" t="inlineStr">
+        <is>
+          <t>segment_586.npy</t>
+        </is>
+      </c>
+      <c r="AD288" t="inlineStr">
+        <is>
+          <t>segment_286.npy</t>
+        </is>
+      </c>
+      <c r="AE288" t="inlineStr">
+        <is>
+          <t>segment_586.npy</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -36569,6 +42329,26 @@
           <t>segment_587.npy</t>
         </is>
       </c>
+      <c r="AB289" t="inlineStr">
+        <is>
+          <t>segment_287.npy</t>
+        </is>
+      </c>
+      <c r="AC289" t="inlineStr">
+        <is>
+          <t>segment_587.npy</t>
+        </is>
+      </c>
+      <c r="AD289" t="inlineStr">
+        <is>
+          <t>segment_287.npy</t>
+        </is>
+      </c>
+      <c r="AE289" t="inlineStr">
+        <is>
+          <t>segment_587.npy</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -36694,6 +42474,26 @@
           <t>segment_588.npy</t>
         </is>
       </c>
+      <c r="AB290" t="inlineStr">
+        <is>
+          <t>segment_288.npy</t>
+        </is>
+      </c>
+      <c r="AC290" t="inlineStr">
+        <is>
+          <t>segment_588.npy</t>
+        </is>
+      </c>
+      <c r="AD290" t="inlineStr">
+        <is>
+          <t>segment_288.npy</t>
+        </is>
+      </c>
+      <c r="AE290" t="inlineStr">
+        <is>
+          <t>segment_588.npy</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -36819,6 +42619,26 @@
           <t>segment_589.npy</t>
         </is>
       </c>
+      <c r="AB291" t="inlineStr">
+        <is>
+          <t>segment_289.npy</t>
+        </is>
+      </c>
+      <c r="AC291" t="inlineStr">
+        <is>
+          <t>segment_589.npy</t>
+        </is>
+      </c>
+      <c r="AD291" t="inlineStr">
+        <is>
+          <t>segment_289.npy</t>
+        </is>
+      </c>
+      <c r="AE291" t="inlineStr">
+        <is>
+          <t>segment_589.npy</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -36944,6 +42764,26 @@
           <t>segment_590.npy</t>
         </is>
       </c>
+      <c r="AB292" t="inlineStr">
+        <is>
+          <t>segment_290.npy</t>
+        </is>
+      </c>
+      <c r="AC292" t="inlineStr">
+        <is>
+          <t>segment_590.npy</t>
+        </is>
+      </c>
+      <c r="AD292" t="inlineStr">
+        <is>
+          <t>segment_290.npy</t>
+        </is>
+      </c>
+      <c r="AE292" t="inlineStr">
+        <is>
+          <t>segment_590.npy</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -37069,6 +42909,26 @@
           <t>segment_591.npy</t>
         </is>
       </c>
+      <c r="AB293" t="inlineStr">
+        <is>
+          <t>segment_291.npy</t>
+        </is>
+      </c>
+      <c r="AC293" t="inlineStr">
+        <is>
+          <t>segment_591.npy</t>
+        </is>
+      </c>
+      <c r="AD293" t="inlineStr">
+        <is>
+          <t>segment_291.npy</t>
+        </is>
+      </c>
+      <c r="AE293" t="inlineStr">
+        <is>
+          <t>segment_591.npy</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -37194,6 +43054,26 @@
           <t>segment_592.npy</t>
         </is>
       </c>
+      <c r="AB294" t="inlineStr">
+        <is>
+          <t>segment_292.npy</t>
+        </is>
+      </c>
+      <c r="AC294" t="inlineStr">
+        <is>
+          <t>segment_592.npy</t>
+        </is>
+      </c>
+      <c r="AD294" t="inlineStr">
+        <is>
+          <t>segment_292.npy</t>
+        </is>
+      </c>
+      <c r="AE294" t="inlineStr">
+        <is>
+          <t>segment_592.npy</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -37319,6 +43199,26 @@
           <t>segment_593.npy</t>
         </is>
       </c>
+      <c r="AB295" t="inlineStr">
+        <is>
+          <t>segment_293.npy</t>
+        </is>
+      </c>
+      <c r="AC295" t="inlineStr">
+        <is>
+          <t>segment_593.npy</t>
+        </is>
+      </c>
+      <c r="AD295" t="inlineStr">
+        <is>
+          <t>segment_293.npy</t>
+        </is>
+      </c>
+      <c r="AE295" t="inlineStr">
+        <is>
+          <t>segment_593.npy</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -37444,6 +43344,26 @@
           <t>segment_594.npy</t>
         </is>
       </c>
+      <c r="AB296" t="inlineStr">
+        <is>
+          <t>segment_294.npy</t>
+        </is>
+      </c>
+      <c r="AC296" t="inlineStr">
+        <is>
+          <t>segment_594.npy</t>
+        </is>
+      </c>
+      <c r="AD296" t="inlineStr">
+        <is>
+          <t>segment_294.npy</t>
+        </is>
+      </c>
+      <c r="AE296" t="inlineStr">
+        <is>
+          <t>segment_594.npy</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -37569,6 +43489,26 @@
           <t>segment_595.npy</t>
         </is>
       </c>
+      <c r="AB297" t="inlineStr">
+        <is>
+          <t>segment_295.npy</t>
+        </is>
+      </c>
+      <c r="AC297" t="inlineStr">
+        <is>
+          <t>segment_595.npy</t>
+        </is>
+      </c>
+      <c r="AD297" t="inlineStr">
+        <is>
+          <t>segment_295.npy</t>
+        </is>
+      </c>
+      <c r="AE297" t="inlineStr">
+        <is>
+          <t>segment_595.npy</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -37694,6 +43634,26 @@
           <t>segment_596.npy</t>
         </is>
       </c>
+      <c r="AB298" t="inlineStr">
+        <is>
+          <t>segment_296.npy</t>
+        </is>
+      </c>
+      <c r="AC298" t="inlineStr">
+        <is>
+          <t>segment_596.npy</t>
+        </is>
+      </c>
+      <c r="AD298" t="inlineStr">
+        <is>
+          <t>segment_296.npy</t>
+        </is>
+      </c>
+      <c r="AE298" t="inlineStr">
+        <is>
+          <t>segment_596.npy</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -37819,6 +43779,26 @@
           <t>segment_597.npy</t>
         </is>
       </c>
+      <c r="AB299" t="inlineStr">
+        <is>
+          <t>segment_297.npy</t>
+        </is>
+      </c>
+      <c r="AC299" t="inlineStr">
+        <is>
+          <t>segment_597.npy</t>
+        </is>
+      </c>
+      <c r="AD299" t="inlineStr">
+        <is>
+          <t>segment_297.npy</t>
+        </is>
+      </c>
+      <c r="AE299" t="inlineStr">
+        <is>
+          <t>segment_597.npy</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -37944,6 +43924,26 @@
           <t>segment_598.npy</t>
         </is>
       </c>
+      <c r="AB300" t="inlineStr">
+        <is>
+          <t>segment_298.npy</t>
+        </is>
+      </c>
+      <c r="AC300" t="inlineStr">
+        <is>
+          <t>segment_598.npy</t>
+        </is>
+      </c>
+      <c r="AD300" t="inlineStr">
+        <is>
+          <t>segment_298.npy</t>
+        </is>
+      </c>
+      <c r="AE300" t="inlineStr">
+        <is>
+          <t>segment_598.npy</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -38065,6 +44065,26 @@
         </is>
       </c>
       <c r="AA301" t="inlineStr">
+        <is>
+          <t>segment_599.npy</t>
+        </is>
+      </c>
+      <c r="AB301" t="inlineStr">
+        <is>
+          <t>segment_299.npy</t>
+        </is>
+      </c>
+      <c r="AC301" t="inlineStr">
+        <is>
+          <t>segment_599.npy</t>
+        </is>
+      </c>
+      <c r="AD301" t="inlineStr">
+        <is>
+          <t>segment_299.npy</t>
+        </is>
+      </c>
+      <c r="AE301" t="inlineStr">
         <is>
           <t>segment_599.npy</t>
         </is>
